--- a/Dokumentation_0.1.3/Zeitplan.xlsx
+++ b/Dokumentation_0.1.3/Zeitplan.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Desktop\Projekte\probst-maveg\Dokumentation_V1.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Desktop\Projekte\probst-maveg\Dokumentation_0.1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB9160-ED72-45A7-B748-80F17F315D23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A7A9E8-977A-4039-AF14-1277E2ECA232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{83867029-8E76-3D4F-AE7B-3038CD017D03}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" activeTab="2" xr2:uid="{83867029-8E76-3D4F-AE7B-3038CD017D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
     <sheet name="Phasenaufteilung" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Zeit in</t>
   </si>
@@ -191,6 +192,15 @@
   <si>
     <t>Datenbankkonzept</t>
   </si>
+  <si>
+    <t>Initialisierung</t>
+  </si>
+  <si>
+    <t>Konzept</t>
+  </si>
+  <si>
+    <t>Einführung</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +254,13 @@
     <font>
       <sz val="12"/>
       <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -777,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1015,10 +1032,46 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1031,36 +1084,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,32 +1110,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4201,16 +4224,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>85878</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>122164</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>188686</xdr:rowOff>
+      <xdr:rowOff>170543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>74774</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>111060</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>150968</xdr:rowOff>
+      <xdr:rowOff>132825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4225,7 +4248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9783235" y="7473043"/>
+          <a:off x="9456664" y="7454900"/>
           <a:ext cx="170325" cy="152782"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -4271,16 +4294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>81020</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>117306</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>26355</xdr:rowOff>
+      <xdr:rowOff>8212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>70164</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>106450</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>179904</xdr:rowOff>
+      <xdr:rowOff>161761</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4295,7 +4318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9778377" y="7691712"/>
+          <a:off x="9451806" y="7673569"/>
           <a:ext cx="170573" cy="153549"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -4447,6 +4470,144 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>97791</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>172356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>86687</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>125567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Diamond 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7D3DF3-3B4C-46F2-9126-E6DBB0CE8DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14512291" y="10350499"/>
+          <a:ext cx="170325" cy="152782"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>102005</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>91148</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>154502</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Diamond 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FDB6F1-2F9E-47AC-A604-917B02732DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14516505" y="10569167"/>
+          <a:ext cx="170572" cy="153549"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4702,6 +4863,535 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>231588</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCBB4E3-7411-4AA9-AE73-1EE13FB75937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3518647" y="754530"/>
+          <a:ext cx="694764" cy="694764"/>
+          <a:chOff x="3511176" y="933824"/>
+          <a:chExt cx="694764" cy="694764"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Graphic 2" descr="Water">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D6A748-408C-4EC0-9708-3D76D33C8FD7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3511176" y="933824"/>
+            <a:ext cx="694764" cy="694764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC395FA-8EDC-41CB-9268-1F7E88D57BE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3763682" y="1238621"/>
+            <a:ext cx="165847" cy="248026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-CH" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="de-CH" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189752</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>227104</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100105</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5A949F-252C-4003-A8F0-A5ADBE8C2A46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6106458" y="764988"/>
+          <a:ext cx="694764" cy="694764"/>
+          <a:chOff x="3511176" y="933824"/>
+          <a:chExt cx="694764" cy="694764"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Graphic 6" descr="Water">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3173E4-23AA-4C54-B0FF-FB9AF40B5072}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3511176" y="933824"/>
+            <a:ext cx="694764" cy="694764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A43C76A-D084-4E3A-A621-1C7E577F637A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3763682" y="1238621"/>
+            <a:ext cx="165847" cy="248026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-CH" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="de-CH" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373531</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>410883</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Group 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32448F9C-541E-4314-8F10-C12580F74412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7605060" y="1098176"/>
+          <a:ext cx="694764" cy="694764"/>
+          <a:chOff x="3511176" y="933824"/>
+          <a:chExt cx="694764" cy="694764"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="Graphic 9" descr="Water">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB6A8DD-6042-4529-A85B-02DB84D5EC06}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3511176" y="933824"/>
+            <a:ext cx="694764" cy="694764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F6A255-EEBA-46AF-B7C9-1B62B9DA7005}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3763682" y="1238621"/>
+            <a:ext cx="165847" cy="248026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-CH" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="de-CH" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>204695</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100104</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD19B5C-1532-4F76-B85C-E4AC159818F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8751048" y="764987"/>
+          <a:ext cx="694764" cy="694764"/>
+          <a:chOff x="3511176" y="933824"/>
+          <a:chExt cx="694764" cy="694764"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="Graphic 12" descr="Water">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4310448D-51D9-4FDE-A6A0-79FA346B4153}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3511176" y="933824"/>
+            <a:ext cx="694764" cy="694764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A60C8BF-6B02-4068-8906-DB926E85A1EA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3763682" y="1238621"/>
+            <a:ext cx="165847" cy="248026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-CH" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="de-CH" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5006,8 +5696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB35978-8946-004E-AC9B-C0C1BFAB6460}">
   <dimension ref="A1:CL73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW38" sqref="AW38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5213,229 +5903,229 @@
       <c r="CL2" s="18"/>
     </row>
     <row r="3" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="109"/>
-      <c r="B3" s="112" t="s">
+      <c r="A3" s="129"/>
+      <c r="B3" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="112" t="s">
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="112" t="s">
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="113"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="108"/>
       <c r="X3" s="96"/>
-      <c r="Y3" s="112" t="s">
+      <c r="Y3" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="114" t="s">
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="113"/>
-      <c r="AO3" s="112" t="s">
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="114"/>
-      <c r="AR3" s="114"/>
-      <c r="AS3" s="114"/>
-      <c r="AT3" s="114"/>
-      <c r="AU3" s="114"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="112" t="s">
+      <c r="AP3" s="107"/>
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="107"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="107"/>
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="AX3" s="114"/>
-      <c r="AY3" s="114"/>
-      <c r="AZ3" s="114"/>
-      <c r="BA3" s="114"/>
-      <c r="BB3" s="114"/>
-      <c r="BC3" s="114"/>
-      <c r="BD3" s="113"/>
-      <c r="BE3" s="112" t="s">
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="107"/>
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="BF3" s="114"/>
-      <c r="BG3" s="114"/>
-      <c r="BH3" s="114"/>
-      <c r="BI3" s="114"/>
-      <c r="BJ3" s="114"/>
-      <c r="BK3" s="114"/>
-      <c r="BL3" s="113"/>
+      <c r="BF3" s="107"/>
+      <c r="BG3" s="107"/>
+      <c r="BH3" s="107"/>
+      <c r="BI3" s="107"/>
+      <c r="BJ3" s="107"/>
+      <c r="BK3" s="107"/>
+      <c r="BL3" s="108"/>
       <c r="BM3" s="74"/>
-      <c r="BN3" s="112" t="s">
+      <c r="BN3" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="BO3" s="114"/>
-      <c r="BP3" s="114"/>
-      <c r="BQ3" s="114"/>
-      <c r="BR3" s="114"/>
-      <c r="BS3" s="114"/>
-      <c r="BT3" s="114"/>
-      <c r="BU3" s="114"/>
-      <c r="BV3" s="112" t="s">
+      <c r="BO3" s="107"/>
+      <c r="BP3" s="107"/>
+      <c r="BQ3" s="107"/>
+      <c r="BR3" s="107"/>
+      <c r="BS3" s="107"/>
+      <c r="BT3" s="107"/>
+      <c r="BU3" s="107"/>
+      <c r="BV3" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="BW3" s="114"/>
-      <c r="BX3" s="114"/>
-      <c r="BY3" s="114"/>
-      <c r="BZ3" s="114"/>
-      <c r="CA3" s="114"/>
-      <c r="CB3" s="114"/>
-      <c r="CC3" s="114"/>
-      <c r="CD3" s="112" t="s">
+      <c r="BW3" s="107"/>
+      <c r="BX3" s="107"/>
+      <c r="BY3" s="107"/>
+      <c r="BZ3" s="107"/>
+      <c r="CA3" s="107"/>
+      <c r="CB3" s="107"/>
+      <c r="CC3" s="107"/>
+      <c r="CD3" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="CE3" s="114"/>
-      <c r="CF3" s="114"/>
-      <c r="CG3" s="113"/>
+      <c r="CE3" s="107"/>
+      <c r="CF3" s="107"/>
+      <c r="CG3" s="108"/>
     </row>
     <row r="4" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="105" t="s">
+      <c r="A4" s="130"/>
+      <c r="B4" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107">
+      <c r="C4" s="126"/>
+      <c r="D4" s="127">
         <v>44293</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="123">
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="109">
         <v>44294</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="123">
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="109">
         <v>44295</v>
       </c>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="125"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="111"/>
       <c r="X4" s="54"/>
-      <c r="Y4" s="123">
+      <c r="Y4" s="109">
         <v>44298</v>
       </c>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="123">
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="109">
         <v>44299</v>
       </c>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="125"/>
-      <c r="AO4" s="123">
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="111"/>
+      <c r="AO4" s="109">
         <v>44300</v>
       </c>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="125"/>
-      <c r="AW4" s="123">
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="111"/>
+      <c r="AW4" s="109">
         <v>44301</v>
       </c>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="124"/>
-      <c r="AZ4" s="124"/>
-      <c r="BA4" s="124"/>
-      <c r="BB4" s="124"/>
-      <c r="BC4" s="124"/>
-      <c r="BD4" s="125"/>
-      <c r="BE4" s="123">
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="111"/>
+      <c r="BE4" s="109">
         <v>44302</v>
       </c>
-      <c r="BF4" s="124"/>
-      <c r="BG4" s="124"/>
-      <c r="BH4" s="124"/>
-      <c r="BI4" s="124"/>
-      <c r="BJ4" s="124"/>
-      <c r="BK4" s="124"/>
-      <c r="BL4" s="125"/>
+      <c r="BF4" s="110"/>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="111"/>
       <c r="BM4" s="54"/>
-      <c r="BN4" s="123">
+      <c r="BN4" s="109">
         <v>44305</v>
       </c>
-      <c r="BO4" s="124"/>
-      <c r="BP4" s="124"/>
-      <c r="BQ4" s="124"/>
-      <c r="BR4" s="124"/>
-      <c r="BS4" s="124"/>
-      <c r="BT4" s="124"/>
-      <c r="BU4" s="125"/>
-      <c r="BV4" s="123">
+      <c r="BO4" s="110"/>
+      <c r="BP4" s="110"/>
+      <c r="BQ4" s="110"/>
+      <c r="BR4" s="110"/>
+      <c r="BS4" s="110"/>
+      <c r="BT4" s="110"/>
+      <c r="BU4" s="111"/>
+      <c r="BV4" s="109">
         <v>44306</v>
       </c>
-      <c r="BW4" s="124"/>
-      <c r="BX4" s="124"/>
-      <c r="BY4" s="124"/>
-      <c r="BZ4" s="124"/>
-      <c r="CA4" s="124"/>
-      <c r="CB4" s="124"/>
-      <c r="CC4" s="125"/>
-      <c r="CD4" s="123">
+      <c r="BW4" s="110"/>
+      <c r="BX4" s="110"/>
+      <c r="BY4" s="110"/>
+      <c r="BZ4" s="110"/>
+      <c r="CA4" s="110"/>
+      <c r="CB4" s="110"/>
+      <c r="CC4" s="111"/>
+      <c r="CD4" s="109">
         <v>44307</v>
       </c>
-      <c r="CE4" s="124"/>
-      <c r="CF4" s="124"/>
-      <c r="CG4" s="124"/>
+      <c r="CE4" s="110"/>
+      <c r="CF4" s="110"/>
+      <c r="CG4" s="110"/>
     </row>
     <row r="5" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="111"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5686,15 +6376,15 @@
       </c>
     </row>
     <row r="6" spans="1:90" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="117"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -5775,13 +6465,13 @@
       <c r="CG6" s="52"/>
     </row>
     <row r="7" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="120">
+      <c r="B7" s="122">
         <v>1</v>
       </c>
-      <c r="C7" s="121">
+      <c r="C7" s="123">
         <v>1</v>
       </c>
       <c r="D7" s="80"/>
@@ -5868,9 +6558,9 @@
       <c r="CG7" s="76"/>
     </row>
     <row r="8" spans="1:90" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="119"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="122"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="93"/>
       <c r="E8" s="63"/>
       <c r="F8" s="6"/>
@@ -5955,13 +6645,13 @@
       <c r="CG8" s="3"/>
     </row>
     <row r="9" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="101">
+      <c r="B9" s="113">
         <v>2</v>
       </c>
-      <c r="C9" s="103"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="20"/>
       <c r="E9" s="81"/>
       <c r="F9" s="81"/>
@@ -6046,9 +6736,9 @@
       <c r="CG9" s="76"/>
     </row>
     <row r="10" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="100"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="104"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="6"/>
       <c r="E10" s="93"/>
       <c r="F10" s="6"/>
@@ -6133,13 +6823,13 @@
       <c r="CG10" s="3"/>
     </row>
     <row r="11" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="101">
+      <c r="B11" s="113">
         <v>2</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -6224,9 +6914,9 @@
       <c r="CG11" s="76"/>
     </row>
     <row r="12" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="100"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="104"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
       <c r="F12" s="93"/>
@@ -6311,13 +7001,13 @@
       <c r="CG12" s="3"/>
     </row>
     <row r="13" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="101">
+      <c r="B13" s="113">
         <v>2</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -6402,9 +7092,9 @@
       <c r="CG13" s="76"/>
     </row>
     <row r="14" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="100"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="104"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -6489,13 +7179,13 @@
       <c r="CG14" s="3"/>
     </row>
     <row r="15" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="101">
+      <c r="B15" s="113">
         <v>2</v>
       </c>
-      <c r="C15" s="103"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -6580,9 +7270,9 @@
       <c r="CG15" s="76"/>
     </row>
     <row r="16" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="100"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="104"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6667,7 +7357,7 @@
       <c r="CG16" s="3"/>
     </row>
     <row r="17" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="101" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="58">
@@ -6758,7 +7448,7 @@
       <c r="CG17" s="76"/>
     </row>
     <row r="18" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="100"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="47"/>
       <c r="C18" s="48"/>
       <c r="D18" s="6"/>
@@ -6845,7 +7535,7 @@
       <c r="CG18" s="3"/>
     </row>
     <row r="19" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="99" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="58">
@@ -6936,7 +7626,7 @@
       <c r="CG19" s="76"/>
     </row>
     <row r="20" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="127"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="47"/>
       <c r="C20" s="48"/>
       <c r="D20" s="6"/>
@@ -7023,15 +7713,15 @@
       <c r="CG20" s="3"/>
     </row>
     <row r="21" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="131"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
@@ -7112,7 +7802,7 @@
       <c r="CG21" s="52"/>
     </row>
     <row r="22" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="101" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="58">
@@ -7202,7 +7892,7 @@
       <c r="CG22" s="76"/>
     </row>
     <row r="23" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="100"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="47"/>
       <c r="C23" s="48"/>
       <c r="D23" s="6"/>
@@ -7289,7 +7979,7 @@
       <c r="CG23" s="3"/>
     </row>
     <row r="24" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="128" t="s">
+      <c r="A24" s="101" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="58">
@@ -7379,7 +8069,7 @@
       <c r="CG24" s="76"/>
     </row>
     <row r="25" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="100"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="47"/>
       <c r="C25" s="48"/>
       <c r="D25" s="6"/>
@@ -7466,7 +8156,7 @@
       <c r="CG25" s="3"/>
     </row>
     <row r="26" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="101" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="58">
@@ -7556,7 +8246,7 @@
       <c r="CG26" s="76"/>
     </row>
     <row r="27" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="100"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="47"/>
       <c r="C27" s="48"/>
       <c r="D27" s="6"/>
@@ -11862,26 +12552,17 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="CD3:CG3"/>
-    <mergeCell ref="CD4:CG4"/>
-    <mergeCell ref="BV3:CC3"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="P3:W3"/>
-    <mergeCell ref="Y3:AF3"/>
-    <mergeCell ref="AG3:AN3"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:W4"/>
-    <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="AG4:AN4"/>
-    <mergeCell ref="BE4:BL4"/>
-    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -11898,17 +12579,26 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AW4:BD4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="CD4:CG4"/>
+    <mergeCell ref="BV3:CC3"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="P3:W3"/>
+    <mergeCell ref="Y3:AF3"/>
+    <mergeCell ref="AG3:AN3"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:W4"/>
+    <mergeCell ref="Y4:AF4"/>
+    <mergeCell ref="AG4:AN4"/>
+    <mergeCell ref="BE4:BL4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12247,4 +12937,299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B01D41-73A8-442A-A19C-AC51174CB3A8}">
+  <dimension ref="B1:S13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B4" s="132"/>
+      <c r="C4" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="132"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="132"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="132"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="132"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C4:F6"/>
+    <mergeCell ref="G4:J6"/>
+    <mergeCell ref="K4:N6"/>
+    <mergeCell ref="O4:R6"/>
+    <mergeCell ref="B7:S13"/>
+    <mergeCell ref="B1:S3"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="B4:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Dokumentation_0.1.3/Zeitplan.xlsx
+++ b/Dokumentation_0.1.3/Zeitplan.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Desktop\Projekte\probst-maveg\Dokumentation_0.1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A7A9E8-977A-4039-AF14-1277E2ECA232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12263A1-4900-4743-B72A-4E7215FC8E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" activeTab="2" xr2:uid="{83867029-8E76-3D4F-AE7B-3038CD017D03}"/>
+    <workbookView xWindow="135" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{83867029-8E76-3D4F-AE7B-3038CD017D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
     <sheet name="Phasenaufteilung" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Meilensteine" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Zeit in</t>
   </si>
@@ -51,31 +51,7 @@
 Dokumentvorlagen</t>
   </si>
   <si>
-    <t>Projektvorgehen</t>
-  </si>
-  <si>
-    <t>Technische Risikoanalyse</t>
-  </si>
-  <si>
     <t>Erstes Expertengespräch</t>
-  </si>
-  <si>
-    <t>Systemumgebung und Anforderungen</t>
-  </si>
-  <si>
-    <t>Architekturkonzept</t>
-  </si>
-  <si>
-    <t>Rollenzkonzept</t>
-  </si>
-  <si>
-    <t>Klassendigramm</t>
-  </si>
-  <si>
-    <t>Erstes Überarbeiten der Dokumentation</t>
-  </si>
-  <si>
-    <t>Testkonzept</t>
   </si>
   <si>
     <t>Realisierung</t>
@@ -94,9 +70,6 @@
   </si>
   <si>
     <t>Bugfixing</t>
-  </si>
-  <si>
-    <t>Letzte überarbeitung der Dokumentation</t>
   </si>
   <si>
     <t>Definieren der User Stories / Use Cases
@@ -169,18 +142,6 @@
     <t>Abschlussbericht</t>
   </si>
   <si>
-    <t>Variantenvergleiche</t>
-  </si>
-  <si>
-    <t>Variantenwahlen</t>
-  </si>
-  <si>
-    <t>ISDS-Konzept</t>
-  </si>
-  <si>
-    <t>Activity Diagramme</t>
-  </si>
-  <si>
     <t>Detailseite implementieren</t>
   </si>
   <si>
@@ -190,9 +151,6 @@
     <t>Filterfunktion + Listview implementieren</t>
   </si>
   <si>
-    <t>Datenbankkonzept</t>
-  </si>
-  <si>
     <t>Initialisierung</t>
   </si>
   <si>
@@ -200,6 +158,53 @@
   </si>
   <si>
     <t>Einführung</t>
+  </si>
+  <si>
+    <t>Allgemein</t>
+  </si>
+  <si>
+    <t>Dokumentation überprüfen</t>
+  </si>
+  <si>
+    <t>Projektvorgehen definieren</t>
+  </si>
+  <si>
+    <t>Risikoanalyse erstellen</t>
+  </si>
+  <si>
+    <t>Variantenvergleiche erstellen</t>
+  </si>
+  <si>
+    <t>Varianten auswerten und wählen</t>
+  </si>
+  <si>
+    <t>ISDS-Konzept erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systemumgebung und Anforderungen  
+definieren
+</t>
+  </si>
+  <si>
+    <t>Architekturkonzept erstellen</t>
+  </si>
+  <si>
+    <t>Rollenzkonzept erstellen</t>
+  </si>
+  <si>
+    <t>Datenbankkonzept erstellen</t>
+  </si>
+  <si>
+    <t>Klassendigramm erstellen</t>
+  </si>
+  <si>
+    <t>Activity Diagramme erstellen</t>
+  </si>
+  <si>
+    <t>Testkonzept erstellen</t>
+  </si>
+  <si>
+    <t>Finalisieren Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -722,19 +727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -789,12 +781,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -864,16 +865,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,9 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -903,10 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,18 +903,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -942,15 +919,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -976,14 +950,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1025,17 +998,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,9 +1070,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1135,6 +1123,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1271,7 +1278,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1326,7 +1333,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1381,7 +1388,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1436,7 +1443,7 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1491,7 +1498,7 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1656,7 +1663,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1711,7 +1718,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1766,7 +1773,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1821,7 +1828,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1876,7 +1883,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1931,7 +1938,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1986,7 +1993,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2041,7 +2048,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2096,7 +2103,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2151,7 +2158,7 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2206,7 +2213,7 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2261,7 +2268,7 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2316,7 +2323,7 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2371,7 +2378,7 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2426,7 +2433,7 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2481,7 +2488,7 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2536,7 +2543,7 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2591,7 +2598,7 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2646,7 +2653,7 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2701,7 +2708,7 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2756,7 +2763,7 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2811,7 +2818,7 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2866,7 +2873,7 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2921,7 +2928,7 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2976,7 +2983,7 @@
     <xdr:from>
       <xdr:col>71</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3031,7 +3038,7 @@
     <xdr:from>
       <xdr:col>71</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3086,7 +3093,7 @@
     <xdr:from>
       <xdr:col>71</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3139,16 +3146,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>74386</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>154215</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>11643</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>4263</xdr:rowOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>129573</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3163,10 +3170,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16484600" y="14142357"/>
-          <a:ext cx="2531686" cy="1600835"/>
+          <a:off x="13133063" y="3053127"/>
+          <a:ext cx="3616531" cy="2579461"/>
           <a:chOff x="-199801" y="7333"/>
-          <a:chExt cx="2044781" cy="1600835"/>
+          <a:chExt cx="2044781" cy="1996547"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3185,7 +3192,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="-199801" y="7333"/>
-            <a:ext cx="2033270" cy="1600835"/>
+            <a:ext cx="2033270" cy="1996547"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3247,10 +3254,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="194615" y="380389"/>
-            <a:ext cx="1650365" cy="1147650"/>
-            <a:chOff x="0" y="-1"/>
-            <a:chExt cx="1650365" cy="1147650"/>
+            <a:off x="133125" y="380389"/>
+            <a:ext cx="1711855" cy="1147650"/>
+            <a:chOff x="-61490" y="-1"/>
+            <a:chExt cx="1711855" cy="1147650"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -3266,10 +3273,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="0" y="848564"/>
-              <a:ext cx="1650365" cy="299085"/>
-              <a:chOff x="-9525" y="0"/>
-              <a:chExt cx="1650365" cy="299085"/>
+              <a:off x="-59821" y="848564"/>
+              <a:ext cx="1710186" cy="299085"/>
+              <a:chOff x="-69346" y="0"/>
+              <a:chExt cx="1710186" cy="299085"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3285,7 +3292,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="-9525" y="57150"/>
+                <a:off x="-69346" y="20890"/>
                 <a:ext cx="146685" cy="143510"/>
               </a:xfrm>
               <a:prstGeom prst="diamond">
@@ -3408,10 +3415,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="0" y="563271"/>
-              <a:ext cx="1650365" cy="299085"/>
-              <a:chOff x="0" y="0"/>
-              <a:chExt cx="1650365" cy="299085"/>
+              <a:off x="-60402" y="563271"/>
+              <a:ext cx="1710767" cy="299085"/>
+              <a:chOff x="-60402" y="0"/>
+              <a:chExt cx="1710767" cy="299085"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3427,7 +3434,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="0" y="47625"/>
+                <a:off x="-60402" y="25424"/>
                 <a:ext cx="143510" cy="143510"/>
               </a:xfrm>
               <a:prstGeom prst="diamond">
@@ -3552,10 +3559,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="2897" y="-1"/>
-              <a:ext cx="1463040" cy="299085"/>
-              <a:chOff x="1" y="-1"/>
-              <a:chExt cx="1463040" cy="299085"/>
+              <a:off x="-61490" y="-1"/>
+              <a:ext cx="1527427" cy="299085"/>
+              <a:chOff x="-64386" y="-1"/>
+              <a:chExt cx="1527427" cy="299085"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3644,7 +3651,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="1" y="58521"/>
+                <a:off x="-64386" y="23000"/>
                 <a:ext cx="144000" cy="144000"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3694,10 +3701,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="2896" y="270662"/>
-              <a:ext cx="1558137" cy="299085"/>
-              <a:chOff x="0" y="-1"/>
-              <a:chExt cx="1558137" cy="299085"/>
+              <a:off x="-56344" y="270662"/>
+              <a:ext cx="1617377" cy="299085"/>
+              <a:chOff x="-59240" y="-1"/>
+              <a:chExt cx="1617377" cy="299085"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3786,7 +3793,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="0" y="58521"/>
+                <a:off x="-59240" y="24481"/>
                 <a:ext cx="143510" cy="143510"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3894,15 +3901,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>69548</xdr:colOff>
+      <xdr:colOff>105834</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>58444</xdr:colOff>
+      <xdr:colOff>94730</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152782</xdr:rowOff>
+      <xdr:rowOff>161854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3917,7 +3924,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5721048" y="3474357"/>
+          <a:off x="5757334" y="3483429"/>
           <a:ext cx="170325" cy="152782"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -3963,16 +3970,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>72570</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>117928</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19098</xdr:rowOff>
+      <xdr:rowOff>19099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>45357</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>90715</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3987,7 +3994,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5724070" y="3683955"/>
+          <a:off x="5587999" y="3683956"/>
           <a:ext cx="154216" cy="144187"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -4031,16 +4038,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>84506</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9071</xdr:rowOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>66361</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>73402</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>161853</xdr:rowOff>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>55258</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>179995</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4055,8 +4062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16676149" y="11956142"/>
-          <a:ext cx="170324" cy="152782"/>
+          <a:off x="17202290" y="11593284"/>
+          <a:ext cx="170325" cy="152782"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4065,74 +4072,6 @@
           <a:schemeClr val="bg2">
             <a:lumMod val="75000"/>
           </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-CH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>88720</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>77863</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>181716</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Diamond 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111A27D9-C0D6-1E41-A457-215ED269AC88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16136077" y="12174810"/>
-          <a:ext cx="170572" cy="153549"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -4222,144 +4161,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>122164</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>170543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>111060</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>132825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Diamond 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCDD8C5-08CD-4113-9444-A63F90B0461F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9456664" y="7454900"/>
-          <a:ext cx="170325" cy="152782"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-CH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>117306</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>8212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>106450</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161761</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Diamond 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB23C17D-3F86-443E-87F0-131668957F24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9451806" y="7673569"/>
-          <a:ext cx="170573" cy="153549"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-CH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
@@ -4472,16 +4273,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>97791</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>172356</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>61505</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>86687</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>125567</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>50402</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>170925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4496,7 +4297,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14512291" y="10350499"/>
+          <a:off x="14657434" y="10014857"/>
           <a:ext cx="170325" cy="152782"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -4542,23 +4343,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>102005</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>953</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104022</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>91148</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>154502</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>92918</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>178183</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Diamond 69">
+        <xdr:cNvPr id="71" name="Diamond 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FDB6F1-2F9E-47AC-A604-917B02732DC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55EE650-D551-459F-BEC9-1C6FC4B05B3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4566,14 +4367,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14516505" y="10569167"/>
-          <a:ext cx="170572" cy="153549"/>
+          <a:off x="9801379" y="7119258"/>
+          <a:ext cx="170325" cy="152782"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -4603,6 +4406,587 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8F87F0-8DF1-4146-80A2-B3CFBC618C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="3401786"/>
+          <a:ext cx="553357" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>MS1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>161472</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="TextBox 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05666F7D-9032-40A2-9D45-C63454952B79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10031186" y="7037615"/>
+          <a:ext cx="553357" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>MS2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="TextBox 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295F6284-E828-4F72-8748-B4D96ACA967F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14913429" y="9951357"/>
+          <a:ext cx="553357" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>MS3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>199571</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="TextBox 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E33CA2D-6854-4C0F-BB7C-658F2E6AFC50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17426214" y="11529786"/>
+          <a:ext cx="553357" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>MS4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>81645</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>90716</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="TextBox 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D34C9BC-CAF5-40FA-8123-B4EE714C7281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13589002" y="5034644"/>
+          <a:ext cx="371928" cy="244927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>MS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>117929</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095F3501-6BE9-4E4B-9756-EE8B2D106BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13988143" y="5034643"/>
+          <a:ext cx="1932214" cy="281215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Name </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>des Meilensteins</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>172745</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>32987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>69279</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>185769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Diamond 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA443BF-9EE1-4320-99DF-7E87B5BEC3B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18403018" y="13148623"/>
+          <a:ext cx="162079" cy="152782"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>122878</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>169059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>663865</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>42059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="TextBox 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B063023-087F-425C-9390-1FF8CF6CA2D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18618696" y="13076877"/>
+          <a:ext cx="540987" cy="277091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>MS5</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5266,15 +5650,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>204695</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>182281</xdr:rowOff>
+      <xdr:colOff>354106</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>242047</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>100104</xdr:rowOff>
+      <xdr:colOff>391458</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2986</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5289,7 +5673,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8751048" y="764987"/>
+          <a:off x="8900459" y="862104"/>
           <a:ext cx="694764" cy="694764"/>
           <a:chOff x="3511176" y="933824"/>
           <a:chExt cx="694764" cy="694764"/>
@@ -5339,6 +5723,137 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A60C8BF-6B02-4068-8906-DB926E85A1EA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3763682" y="1238621"/>
+            <a:ext cx="165847" cy="248026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-CH" sz="1100"/>
+              <a:t>5</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="de-CH" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>536390</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>573742</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43327</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Group 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C335333-10B8-420A-A555-9303D21E2355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8425331" y="1096681"/>
+          <a:ext cx="694764" cy="694764"/>
+          <a:chOff x="3511176" y="933824"/>
+          <a:chExt cx="694764" cy="694764"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="Graphic 15" descr="Water">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8D35FB-02B0-41C7-8AB4-3099FFDB8D22}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3511176" y="933824"/>
+            <a:ext cx="694764" cy="694764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3515377-2053-4944-BAF2-7ED744E74107}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5694,10 +6209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB35978-8946-004E-AC9B-C0C1BFAB6460}">
-  <dimension ref="A1:CL73"/>
+  <dimension ref="A1:CL74"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW38" sqref="AW38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BO16" sqref="BO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5715,13 +6230,13 @@
     <col min="82" max="82" width="2.58203125" customWidth="1"/>
     <col min="83" max="83" width="2.83203125" customWidth="1"/>
     <col min="84" max="84" width="3.4140625" customWidth="1"/>
-    <col min="85" max="85" width="3.4140625" style="79" customWidth="1"/>
+    <col min="85" max="85" width="3.4140625" style="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A1" s="18"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -5742,7 +6257,7 @@
       <c r="U1" s="18"/>
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
-      <c r="X1" s="73"/>
+      <c r="X1" s="63"/>
       <c r="Y1" s="18"/>
       <c r="Z1" s="18"/>
       <c r="AA1" s="18"/>
@@ -5803,7 +6318,7 @@
       <c r="CD1" s="18"/>
       <c r="CE1" s="18"/>
       <c r="CF1" s="18"/>
-      <c r="CG1" s="75"/>
+      <c r="CG1" s="65"/>
       <c r="CH1" s="18"/>
       <c r="CI1" s="18"/>
       <c r="CJ1" s="18"/>
@@ -5812,8 +6327,8 @@
     </row>
     <row r="2" spans="1:90" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -5834,7 +6349,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
-      <c r="X2" s="73"/>
+      <c r="X2" s="63"/>
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
@@ -5895,7 +6410,7 @@
       <c r="CD2" s="18"/>
       <c r="CE2" s="18"/>
       <c r="CF2" s="18"/>
-      <c r="CG2" s="75"/>
+      <c r="CG2" s="65"/>
       <c r="CH2" s="18"/>
       <c r="CI2" s="18"/>
       <c r="CJ2" s="18"/>
@@ -5903,229 +6418,229 @@
       <c r="CL2" s="18"/>
     </row>
     <row r="3" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="129"/>
-      <c r="B3" s="106" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
-      <c r="AL3" s="107"/>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP3" s="107"/>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="107"/>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="107"/>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX3" s="107"/>
-      <c r="AY3" s="107"/>
-      <c r="AZ3" s="107"/>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="107"/>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF3" s="107"/>
-      <c r="BG3" s="107"/>
-      <c r="BH3" s="107"/>
-      <c r="BI3" s="107"/>
-      <c r="BJ3" s="107"/>
-      <c r="BK3" s="107"/>
-      <c r="BL3" s="108"/>
-      <c r="BM3" s="74"/>
-      <c r="BN3" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="BO3" s="107"/>
-      <c r="BP3" s="107"/>
-      <c r="BQ3" s="107"/>
-      <c r="BR3" s="107"/>
-      <c r="BS3" s="107"/>
-      <c r="BT3" s="107"/>
-      <c r="BU3" s="107"/>
-      <c r="BV3" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="BW3" s="107"/>
-      <c r="BX3" s="107"/>
-      <c r="BY3" s="107"/>
-      <c r="BZ3" s="107"/>
-      <c r="CA3" s="107"/>
-      <c r="CB3" s="107"/>
-      <c r="CC3" s="107"/>
-      <c r="CD3" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="CE3" s="107"/>
-      <c r="CF3" s="107"/>
-      <c r="CG3" s="108"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="104"/>
+      <c r="AO3" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="104"/>
+      <c r="AW3" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="104"/>
+      <c r="BE3" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF3" s="103"/>
+      <c r="BG3" s="103"/>
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="103"/>
+      <c r="BJ3" s="103"/>
+      <c r="BK3" s="103"/>
+      <c r="BL3" s="104"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="BO3" s="103"/>
+      <c r="BP3" s="103"/>
+      <c r="BQ3" s="103"/>
+      <c r="BR3" s="103"/>
+      <c r="BS3" s="103"/>
+      <c r="BT3" s="103"/>
+      <c r="BU3" s="103"/>
+      <c r="BV3" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW3" s="103"/>
+      <c r="BX3" s="103"/>
+      <c r="BY3" s="103"/>
+      <c r="BZ3" s="103"/>
+      <c r="CA3" s="103"/>
+      <c r="CB3" s="103"/>
+      <c r="CC3" s="103"/>
+      <c r="CD3" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE3" s="103"/>
+      <c r="CF3" s="103"/>
+      <c r="CG3" s="104"/>
     </row>
     <row r="4" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="130"/>
-      <c r="B4" s="125" t="s">
+      <c r="A4" s="125"/>
+      <c r="B4" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="127">
+      <c r="C4" s="121"/>
+      <c r="D4" s="122">
         <v>44293</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="109">
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="105">
         <v>44294</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="109">
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="105">
         <v>44295</v>
       </c>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="109">
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="105">
         <v>44298</v>
       </c>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="111"/>
-      <c r="AG4" s="109">
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="105">
         <v>44299</v>
       </c>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="111"/>
-      <c r="AO4" s="109">
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="105">
         <v>44300</v>
       </c>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="111"/>
-      <c r="AW4" s="109">
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="105">
         <v>44301</v>
       </c>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="111"/>
-      <c r="BE4" s="109">
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="106"/>
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="105">
         <v>44302</v>
       </c>
-      <c r="BF4" s="110"/>
-      <c r="BG4" s="110"/>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="110"/>
-      <c r="BJ4" s="110"/>
-      <c r="BK4" s="110"/>
-      <c r="BL4" s="111"/>
-      <c r="BM4" s="54"/>
-      <c r="BN4" s="109">
+      <c r="BF4" s="106"/>
+      <c r="BG4" s="106"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="107"/>
+      <c r="BM4" s="46"/>
+      <c r="BN4" s="105">
         <v>44305</v>
       </c>
-      <c r="BO4" s="110"/>
-      <c r="BP4" s="110"/>
-      <c r="BQ4" s="110"/>
-      <c r="BR4" s="110"/>
-      <c r="BS4" s="110"/>
-      <c r="BT4" s="110"/>
-      <c r="BU4" s="111"/>
-      <c r="BV4" s="109">
+      <c r="BO4" s="106"/>
+      <c r="BP4" s="106"/>
+      <c r="BQ4" s="106"/>
+      <c r="BR4" s="106"/>
+      <c r="BS4" s="106"/>
+      <c r="BT4" s="106"/>
+      <c r="BU4" s="107"/>
+      <c r="BV4" s="105">
         <v>44306</v>
       </c>
-      <c r="BW4" s="110"/>
-      <c r="BX4" s="110"/>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="110"/>
-      <c r="CA4" s="110"/>
-      <c r="CB4" s="110"/>
-      <c r="CC4" s="111"/>
-      <c r="CD4" s="109">
+      <c r="BW4" s="106"/>
+      <c r="BX4" s="106"/>
+      <c r="BY4" s="106"/>
+      <c r="BZ4" s="106"/>
+      <c r="CA4" s="106"/>
+      <c r="CB4" s="106"/>
+      <c r="CC4" s="107"/>
+      <c r="CD4" s="105">
         <v>44307</v>
       </c>
-      <c r="CE4" s="110"/>
-      <c r="CF4" s="110"/>
-      <c r="CG4" s="110"/>
+      <c r="CE4" s="106"/>
+      <c r="CF4" s="106"/>
+      <c r="CG4" s="106"/>
     </row>
     <row r="5" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="131"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -6192,7 +6707,7 @@
       <c r="W5" s="3">
         <v>8</v>
       </c>
-      <c r="X5" s="54"/>
+      <c r="X5" s="46"/>
       <c r="Y5" s="2">
         <v>1</v>
       </c>
@@ -6313,7 +6828,7 @@
       <c r="BL5" s="5">
         <v>8</v>
       </c>
-      <c r="BM5" s="54"/>
+      <c r="BM5" s="46"/>
       <c r="BN5" s="4">
         <v>1</v>
       </c>
@@ -6376,15 +6891,15 @@
       </c>
     </row>
     <row r="6" spans="1:90" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
+      <c r="A6" s="112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -6401,7 +6916,7 @@
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
-      <c r="X6" s="54"/>
+      <c r="X6" s="46"/>
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
@@ -6418,7 +6933,7 @@
       <c r="AL6" s="24"/>
       <c r="AM6" s="24"/>
       <c r="AN6" s="25"/>
-      <c r="AO6" s="36"/>
+      <c r="AO6" s="33"/>
       <c r="AP6" s="24"/>
       <c r="AQ6" s="24"/>
       <c r="AR6" s="24"/>
@@ -6442,7 +6957,7 @@
       <c r="BJ6" s="24"/>
       <c r="BK6" s="24"/>
       <c r="BL6" s="24"/>
-      <c r="BM6" s="54"/>
+      <c r="BM6" s="46"/>
       <c r="BN6" s="24"/>
       <c r="BO6" s="24"/>
       <c r="BP6" s="24"/>
@@ -6450,31 +6965,31 @@
       <c r="BR6" s="24"/>
       <c r="BS6" s="24"/>
       <c r="BT6" s="24"/>
-      <c r="BU6" s="84"/>
-      <c r="BV6" s="84"/>
+      <c r="BU6" s="74"/>
+      <c r="BV6" s="74"/>
       <c r="BW6" s="24"/>
       <c r="BX6" s="24"/>
       <c r="BY6" s="24"/>
       <c r="BZ6" s="24"/>
       <c r="CA6" s="24"/>
       <c r="CB6" s="24"/>
-      <c r="CC6" s="84"/>
-      <c r="CD6" s="84"/>
-      <c r="CE6" s="51"/>
-      <c r="CF6" s="51"/>
-      <c r="CG6" s="52"/>
+      <c r="CC6" s="74"/>
+      <c r="CD6" s="74"/>
+      <c r="CE6" s="43"/>
+      <c r="CF6" s="43"/>
+      <c r="CG6" s="44"/>
     </row>
     <row r="7" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="122">
+      <c r="B7" s="117">
         <v>1</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="118">
         <v>1</v>
       </c>
-      <c r="D7" s="80"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
@@ -6494,7 +7009,7 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="11"/>
-      <c r="X7" s="54"/>
+      <c r="X7" s="46"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -6535,7 +7050,7 @@
       <c r="BJ7" s="13"/>
       <c r="BK7" s="13"/>
       <c r="BL7" s="14"/>
-      <c r="BM7" s="54"/>
+      <c r="BM7" s="46"/>
       <c r="BN7" s="12"/>
       <c r="BO7" s="13"/>
       <c r="BP7" s="13"/>
@@ -6555,14 +7070,14 @@
       <c r="CD7" s="12"/>
       <c r="CE7" s="13"/>
       <c r="CF7" s="13"/>
-      <c r="CG7" s="76"/>
+      <c r="CG7" s="66"/>
     </row>
     <row r="8" spans="1:90" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="121"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="63"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="6"/>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -6581,7 +7096,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="16"/>
-      <c r="X8" s="54"/>
+      <c r="X8" s="46"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
@@ -6622,7 +7137,7 @@
       <c r="BJ8" s="6"/>
       <c r="BK8" s="6"/>
       <c r="BL8" s="16"/>
-      <c r="BM8" s="54"/>
+      <c r="BM8" s="46"/>
       <c r="BN8" s="2"/>
       <c r="BO8" s="6"/>
       <c r="BP8" s="6"/>
@@ -6645,16 +7160,18 @@
       <c r="CG8" s="3"/>
     </row>
     <row r="9" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="113">
+      <c r="B9" s="109">
         <v>2</v>
       </c>
-      <c r="C9" s="115"/>
+      <c r="C9" s="133">
+        <v>1</v>
+      </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="21"/>
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
@@ -6672,7 +7189,7 @@
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
       <c r="W9" s="21"/>
-      <c r="X9" s="54"/>
+      <c r="X9" s="46"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
@@ -6713,7 +7230,7 @@
       <c r="BJ9" s="13"/>
       <c r="BK9" s="13"/>
       <c r="BL9" s="14"/>
-      <c r="BM9" s="54"/>
+      <c r="BM9" s="46"/>
       <c r="BN9" s="12"/>
       <c r="BO9" s="13"/>
       <c r="BP9" s="13"/>
@@ -6733,17 +7250,17 @@
       <c r="CD9" s="12"/>
       <c r="CE9" s="13"/>
       <c r="CF9" s="13"/>
-      <c r="CG9" s="76"/>
+      <c r="CG9" s="66"/>
     </row>
     <row r="10" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="102"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="116"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="93"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="95"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -6759,7 +7276,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="16"/>
-      <c r="X10" s="54"/>
+      <c r="X10" s="46"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -6800,7 +7317,7 @@
       <c r="BJ10" s="6"/>
       <c r="BK10" s="6"/>
       <c r="BL10" s="16"/>
-      <c r="BM10" s="54"/>
+      <c r="BM10" s="46"/>
       <c r="BN10" s="2"/>
       <c r="BO10" s="6"/>
       <c r="BP10" s="6"/>
@@ -6823,18 +7340,20 @@
       <c r="CG10" s="3"/>
     </row>
     <row r="11" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="113">
+      <c r="A11" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="109">
         <v>2</v>
       </c>
-      <c r="C11" s="115"/>
+      <c r="C11" s="133">
+        <v>4</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
@@ -6850,7 +7369,7 @@
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
       <c r="W11" s="21"/>
-      <c r="X11" s="54"/>
+      <c r="X11" s="46"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
@@ -6891,7 +7410,7 @@
       <c r="BJ11" s="13"/>
       <c r="BK11" s="13"/>
       <c r="BL11" s="14"/>
-      <c r="BM11" s="54"/>
+      <c r="BM11" s="46"/>
       <c r="BN11" s="12"/>
       <c r="BO11" s="13"/>
       <c r="BP11" s="13"/>
@@ -6911,18 +7430,18 @@
       <c r="CD11" s="12"/>
       <c r="CE11" s="13"/>
       <c r="CF11" s="13"/>
-      <c r="CG11" s="76"/>
+      <c r="CG11" s="66"/>
     </row>
     <row r="12" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="102"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="116"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="6"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -6937,7 +7456,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="16"/>
-      <c r="X12" s="54"/>
+      <c r="X12" s="46"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -6978,7 +7497,7 @@
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
       <c r="BL12" s="16"/>
-      <c r="BM12" s="54"/>
+      <c r="BM12" s="46"/>
       <c r="BN12" s="2"/>
       <c r="BO12" s="6"/>
       <c r="BP12" s="6"/>
@@ -7001,20 +7520,22 @@
       <c r="CG12" s="3"/>
     </row>
     <row r="13" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="113">
+      <c r="A13" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="109">
         <v>2</v>
       </c>
-      <c r="C13" s="115"/>
+      <c r="C13" s="133">
+        <v>2</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="11"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="97"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="87"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -7028,7 +7549,7 @@
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="21"/>
-      <c r="X13" s="54"/>
+      <c r="X13" s="46"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
@@ -7069,7 +7590,7 @@
       <c r="BJ13" s="13"/>
       <c r="BK13" s="13"/>
       <c r="BL13" s="14"/>
-      <c r="BM13" s="54"/>
+      <c r="BM13" s="46"/>
       <c r="BN13" s="12"/>
       <c r="BO13" s="13"/>
       <c r="BP13" s="13"/>
@@ -7089,20 +7610,20 @@
       <c r="CD13" s="12"/>
       <c r="CE13" s="13"/>
       <c r="CF13" s="13"/>
-      <c r="CG13" s="76"/>
+      <c r="CG13" s="66"/>
     </row>
     <row r="14" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="102"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -7115,7 +7636,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="16"/>
-      <c r="X14" s="54"/>
+      <c r="X14" s="46"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
@@ -7156,7 +7677,7 @@
       <c r="BJ14" s="6"/>
       <c r="BK14" s="6"/>
       <c r="BL14" s="16"/>
-      <c r="BM14" s="54"/>
+      <c r="BM14" s="46"/>
       <c r="BN14" s="2"/>
       <c r="BO14" s="6"/>
       <c r="BP14" s="6"/>
@@ -7179,22 +7700,24 @@
       <c r="CG14" s="3"/>
     </row>
     <row r="15" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="113">
+      <c r="A15" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="109">
         <v>2</v>
       </c>
-      <c r="C15" s="115"/>
+      <c r="C15" s="133">
+        <v>1</v>
+      </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="97"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="21"/>
@@ -7206,7 +7729,7 @@
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="21"/>
-      <c r="X15" s="54"/>
+      <c r="X15" s="46"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
@@ -7247,7 +7770,7 @@
       <c r="BJ15" s="13"/>
       <c r="BK15" s="13"/>
       <c r="BL15" s="14"/>
-      <c r="BM15" s="54"/>
+      <c r="BM15" s="46"/>
       <c r="BN15" s="12"/>
       <c r="BO15" s="13"/>
       <c r="BP15" s="13"/>
@@ -7267,12 +7790,12 @@
       <c r="CD15" s="12"/>
       <c r="CE15" s="13"/>
       <c r="CF15" s="13"/>
-      <c r="CG15" s="76"/>
+      <c r="CG15" s="66"/>
     </row>
     <row r="16" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="102"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -7281,19 +7804,19 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="16"/>
-      <c r="X16" s="54"/>
+      <c r="X16" s="46"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -7334,7 +7857,7 @@
       <c r="BJ16" s="6"/>
       <c r="BK16" s="6"/>
       <c r="BL16" s="16"/>
-      <c r="BM16" s="54"/>
+      <c r="BM16" s="46"/>
       <c r="BN16" s="2"/>
       <c r="BO16" s="6"/>
       <c r="BP16" s="6"/>
@@ -7357,24 +7880,26 @@
       <c r="CG16" s="3"/>
     </row>
     <row r="17" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="58">
+      <c r="A17" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="117">
         <v>2</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="118">
+        <v>1</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="97"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="87"/>
       <c r="O17" s="11"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="10"/>
@@ -7384,7 +7909,7 @@
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="54"/>
+      <c r="X17" s="46"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
@@ -7425,7 +7950,7 @@
       <c r="BJ17" s="13"/>
       <c r="BK17" s="13"/>
       <c r="BL17" s="14"/>
-      <c r="BM17" s="54"/>
+      <c r="BM17" s="46"/>
       <c r="BN17" s="12"/>
       <c r="BO17" s="13"/>
       <c r="BP17" s="13"/>
@@ -7445,12 +7970,12 @@
       <c r="CD17" s="12"/>
       <c r="CE17" s="13"/>
       <c r="CF17" s="13"/>
-      <c r="CG17" s="76"/>
+      <c r="CG17" s="66"/>
     </row>
     <row r="18" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="102"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -7460,7 +7985,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="83"/>
       <c r="N18" s="6"/>
       <c r="O18" s="16"/>
       <c r="P18" s="2"/>
@@ -7471,7 +7996,7 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="16"/>
-      <c r="X18" s="54"/>
+      <c r="X18" s="46"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
@@ -7512,7 +8037,7 @@
       <c r="BJ18" s="6"/>
       <c r="BK18" s="6"/>
       <c r="BL18" s="16"/>
-      <c r="BM18" s="54"/>
+      <c r="BM18" s="46"/>
       <c r="BN18" s="2"/>
       <c r="BO18" s="6"/>
       <c r="BP18" s="6"/>
@@ -7535,13 +8060,15 @@
       <c r="CG18" s="3"/>
     </row>
     <row r="19" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="58">
+      <c r="A19" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="117">
         <v>1</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="118">
+        <v>1</v>
+      </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -7549,11 +8076,11 @@
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="67"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="82"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="72"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -7562,7 +8089,7 @@
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
       <c r="W19" s="11"/>
-      <c r="X19" s="54"/>
+      <c r="X19" s="46"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
@@ -7603,7 +8130,7 @@
       <c r="BJ19" s="13"/>
       <c r="BK19" s="13"/>
       <c r="BL19" s="14"/>
-      <c r="BM19" s="54"/>
+      <c r="BM19" s="46"/>
       <c r="BN19" s="12"/>
       <c r="BO19" s="13"/>
       <c r="BP19" s="13"/>
@@ -7623,12 +8150,12 @@
       <c r="CD19" s="12"/>
       <c r="CE19" s="13"/>
       <c r="CF19" s="13"/>
-      <c r="CG19" s="76"/>
+      <c r="CG19" s="66"/>
     </row>
     <row r="20" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="100"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -7639,17 +8166,17 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="N20" s="83"/>
       <c r="O20" s="16"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
       <c r="V20" s="6"/>
       <c r="W20" s="16"/>
-      <c r="X20" s="54"/>
+      <c r="X20" s="46"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
@@ -7690,7 +8217,7 @@
       <c r="BJ20" s="6"/>
       <c r="BK20" s="6"/>
       <c r="BL20" s="16"/>
-      <c r="BM20" s="54"/>
+      <c r="BM20" s="46"/>
       <c r="BN20" s="2"/>
       <c r="BO20" s="6"/>
       <c r="BP20" s="6"/>
@@ -7713,15 +8240,15 @@
       <c r="CG20" s="3"/>
     </row>
     <row r="21" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
+      <c r="A21" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
@@ -7738,7 +8265,7 @@
       <c r="U21" s="27"/>
       <c r="V21" s="27"/>
       <c r="W21" s="27"/>
-      <c r="X21" s="54"/>
+      <c r="X21" s="46"/>
       <c r="Y21" s="27"/>
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
@@ -7755,60 +8282,60 @@
       <c r="AL21" s="27"/>
       <c r="AM21" s="27"/>
       <c r="AN21" s="28"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="50"/>
-      <c r="AW21" s="50"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="50"/>
-      <c r="AZ21" s="50"/>
-      <c r="BA21" s="50"/>
-      <c r="BB21" s="50"/>
-      <c r="BC21" s="50"/>
-      <c r="BD21" s="50"/>
-      <c r="BE21" s="50"/>
-      <c r="BF21" s="50"/>
-      <c r="BG21" s="50"/>
-      <c r="BH21" s="50"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="50"/>
-      <c r="BK21" s="50"/>
-      <c r="BL21" s="50"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="50"/>
-      <c r="BO21" s="50"/>
-      <c r="BP21" s="50"/>
-      <c r="BQ21" s="50"/>
-      <c r="BR21" s="50"/>
-      <c r="BS21" s="50"/>
-      <c r="BT21" s="50"/>
-      <c r="BU21" s="50"/>
-      <c r="BV21" s="50"/>
-      <c r="BW21" s="50"/>
-      <c r="BX21" s="50"/>
-      <c r="BY21" s="50"/>
-      <c r="BZ21" s="50"/>
-      <c r="CA21" s="50"/>
-      <c r="CB21" s="50"/>
-      <c r="CC21" s="37"/>
-      <c r="CD21" s="51"/>
-      <c r="CE21" s="51"/>
-      <c r="CF21" s="51"/>
-      <c r="CG21" s="52"/>
+      <c r="AO21" s="33"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="42"/>
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="42"/>
+      <c r="BB21" s="42"/>
+      <c r="BC21" s="42"/>
+      <c r="BD21" s="42"/>
+      <c r="BE21" s="42"/>
+      <c r="BF21" s="42"/>
+      <c r="BG21" s="42"/>
+      <c r="BH21" s="42"/>
+      <c r="BI21" s="42"/>
+      <c r="BJ21" s="42"/>
+      <c r="BK21" s="42"/>
+      <c r="BL21" s="42"/>
+      <c r="BM21" s="46"/>
+      <c r="BN21" s="42"/>
+      <c r="BO21" s="42"/>
+      <c r="BP21" s="42"/>
+      <c r="BQ21" s="42"/>
+      <c r="BR21" s="42"/>
+      <c r="BS21" s="42"/>
+      <c r="BT21" s="42"/>
+      <c r="BU21" s="42"/>
+      <c r="BV21" s="42"/>
+      <c r="BW21" s="42"/>
+      <c r="BX21" s="42"/>
+      <c r="BY21" s="42"/>
+      <c r="BZ21" s="42"/>
+      <c r="CA21" s="42"/>
+      <c r="CB21" s="42"/>
+      <c r="CC21" s="34"/>
+      <c r="CD21" s="43"/>
+      <c r="CE21" s="43"/>
+      <c r="CF21" s="43"/>
+      <c r="CG21" s="44"/>
     </row>
     <row r="22" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="58">
+      <c r="A22" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="117">
         <v>1</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -7817,18 +8344,18 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
       <c r="N22" s="10"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="10"/>
+      <c r="O22" s="11"/>
+      <c r="Q22" s="73"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
       <c r="W22" s="11"/>
-      <c r="X22" s="54"/>
+      <c r="X22" s="46"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
@@ -7869,7 +8396,7 @@
       <c r="BJ22" s="13"/>
       <c r="BK22" s="13"/>
       <c r="BL22" s="14"/>
-      <c r="BM22" s="54"/>
+      <c r="BM22" s="46"/>
       <c r="BN22" s="12"/>
       <c r="BO22" s="13"/>
       <c r="BP22" s="13"/>
@@ -7889,12 +8416,12 @@
       <c r="CD22" s="12"/>
       <c r="CE22" s="13"/>
       <c r="CF22" s="13"/>
-      <c r="CG22" s="76"/>
+      <c r="CG22" s="66"/>
     </row>
     <row r="23" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="102"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -7915,7 +8442,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="16"/>
-      <c r="X23" s="54"/>
+      <c r="X23" s="46"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
@@ -7956,7 +8483,7 @@
       <c r="BJ23" s="6"/>
       <c r="BK23" s="6"/>
       <c r="BL23" s="16"/>
-      <c r="BM23" s="54"/>
+      <c r="BM23" s="46"/>
       <c r="BN23" s="2"/>
       <c r="BO23" s="6"/>
       <c r="BP23" s="6"/>
@@ -7979,13 +8506,13 @@
       <c r="CG23" s="3"/>
     </row>
     <row r="24" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="58">
+      <c r="A24" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="117">
         <v>2</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -7995,17 +8522,17 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
       <c r="O24" s="11"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="10"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
       <c r="W24" s="11"/>
-      <c r="X24" s="54"/>
+      <c r="X24" s="46"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -8046,7 +8573,7 @@
       <c r="BJ24" s="13"/>
       <c r="BK24" s="13"/>
       <c r="BL24" s="14"/>
-      <c r="BM24" s="54"/>
+      <c r="BM24" s="46"/>
       <c r="BN24" s="12"/>
       <c r="BO24" s="13"/>
       <c r="BP24" s="13"/>
@@ -8066,12 +8593,12 @@
       <c r="CD24" s="12"/>
       <c r="CE24" s="13"/>
       <c r="CF24" s="13"/>
-      <c r="CG24" s="76"/>
+      <c r="CG24" s="66"/>
     </row>
     <row r="25" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="102"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -8092,7 +8619,7 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="16"/>
-      <c r="X25" s="54"/>
+      <c r="X25" s="46"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
@@ -8133,7 +8660,7 @@
       <c r="BJ25" s="6"/>
       <c r="BK25" s="6"/>
       <c r="BL25" s="16"/>
-      <c r="BM25" s="54"/>
+      <c r="BM25" s="46"/>
       <c r="BN25" s="2"/>
       <c r="BO25" s="6"/>
       <c r="BP25" s="6"/>
@@ -8156,13 +8683,13 @@
       <c r="CG25" s="3"/>
     </row>
     <row r="26" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="58">
+      <c r="A26" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="117">
         <v>2</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -8174,15 +8701,14 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="66"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="57"/>
       <c r="Q26" s="10"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="10"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
       <c r="V26" s="10"/>
       <c r="W26" s="11"/>
-      <c r="X26" s="54"/>
+      <c r="X26" s="46"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
@@ -8223,7 +8749,7 @@
       <c r="BJ26" s="13"/>
       <c r="BK26" s="13"/>
       <c r="BL26" s="14"/>
-      <c r="BM26" s="54"/>
+      <c r="BM26" s="46"/>
       <c r="BN26" s="12"/>
       <c r="BO26" s="13"/>
       <c r="BP26" s="13"/>
@@ -8243,12 +8769,12 @@
       <c r="CD26" s="12"/>
       <c r="CE26" s="13"/>
       <c r="CF26" s="13"/>
-      <c r="CG26" s="76"/>
+      <c r="CG26" s="66"/>
     </row>
     <row r="27" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="102"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -8269,7 +8795,7 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="16"/>
-      <c r="X27" s="54"/>
+      <c r="X27" s="46"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
@@ -8310,7 +8836,7 @@
       <c r="BJ27" s="6"/>
       <c r="BK27" s="6"/>
       <c r="BL27" s="16"/>
-      <c r="BM27" s="54"/>
+      <c r="BM27" s="46"/>
       <c r="BN27" s="2"/>
       <c r="BO27" s="6"/>
       <c r="BP27" s="6"/>
@@ -8333,13 +8859,13 @@
       <c r="CG27" s="3"/>
     </row>
     <row r="28" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="58">
+      <c r="A28" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="117">
         <v>1</v>
       </c>
-      <c r="C28" s="43"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -8353,13 +8879,12 @@
       <c r="N28" s="10"/>
       <c r="O28" s="11"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="67"/>
+      <c r="Q28" s="58"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="10"/>
+      <c r="V28" s="70"/>
       <c r="W28" s="11"/>
-      <c r="X28" s="54"/>
+      <c r="X28" s="46"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
@@ -8400,7 +8925,7 @@
       <c r="BJ28" s="13"/>
       <c r="BK28" s="13"/>
       <c r="BL28" s="14"/>
-      <c r="BM28" s="54"/>
+      <c r="BM28" s="46"/>
       <c r="BN28" s="12"/>
       <c r="BO28" s="13"/>
       <c r="BP28" s="13"/>
@@ -8420,12 +8945,12 @@
       <c r="CD28" s="12"/>
       <c r="CE28" s="13"/>
       <c r="CF28" s="13"/>
-      <c r="CG28" s="76"/>
+      <c r="CG28" s="66"/>
     </row>
     <row r="29" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="45"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -8446,7 +8971,7 @@
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="16"/>
-      <c r="X29" s="54"/>
+      <c r="X29" s="46"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
@@ -8487,7 +9012,7 @@
       <c r="BJ29" s="6"/>
       <c r="BK29" s="6"/>
       <c r="BL29" s="16"/>
-      <c r="BM29" s="54"/>
+      <c r="BM29" s="46"/>
       <c r="BN29" s="2"/>
       <c r="BO29" s="6"/>
       <c r="BP29" s="6"/>
@@ -8510,13 +9035,13 @@
       <c r="CG29" s="3"/>
     </row>
     <row r="30" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="58">
+      <c r="B30" s="117">
         <v>3</v>
       </c>
-      <c r="C30" s="43"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -8533,12 +9058,11 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="10"/>
+      <c r="U30" s="58"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="70"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
@@ -8577,7 +9101,7 @@
       <c r="BJ30" s="13"/>
       <c r="BK30" s="13"/>
       <c r="BL30" s="14"/>
-      <c r="BM30" s="54"/>
+      <c r="BM30" s="46"/>
       <c r="BN30" s="12"/>
       <c r="BO30" s="13"/>
       <c r="BP30" s="13"/>
@@ -8597,12 +9121,12 @@
       <c r="CD30" s="12"/>
       <c r="CE30" s="13"/>
       <c r="CF30" s="13"/>
-      <c r="CG30" s="76"/>
+      <c r="CG30" s="66"/>
     </row>
     <row r="31" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="45"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -8621,12 +9145,12 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
@@ -8664,7 +9188,7 @@
       <c r="BJ31" s="6"/>
       <c r="BK31" s="6"/>
       <c r="BL31" s="16"/>
-      <c r="BM31" s="54"/>
+      <c r="BM31" s="46"/>
       <c r="BN31" s="2"/>
       <c r="BO31" s="6"/>
       <c r="BP31" s="6"/>
@@ -8687,13 +9211,13 @@
       <c r="CG31" s="3"/>
     </row>
     <row r="32" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="58">
+      <c r="A32" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="117">
         <v>2</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -8713,10 +9237,9 @@
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
-      <c r="X32" s="54"/>
-      <c r="Z32" s="80"/>
-      <c r="AA32" s="80"/>
-      <c r="AB32" s="10"/>
+      <c r="X32" s="46"/>
+      <c r="AA32" s="70"/>
+      <c r="AB32" s="70"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
@@ -8753,7 +9276,7 @@
       <c r="BJ32" s="13"/>
       <c r="BK32" s="13"/>
       <c r="BL32" s="14"/>
-      <c r="BM32" s="54"/>
+      <c r="BM32" s="46"/>
       <c r="BN32" s="12"/>
       <c r="BO32" s="13"/>
       <c r="BP32" s="13"/>
@@ -8773,12 +9296,12 @@
       <c r="CD32" s="12"/>
       <c r="CE32" s="13"/>
       <c r="CF32" s="13"/>
-      <c r="CG32" s="76"/>
+      <c r="CG32" s="66"/>
     </row>
     <row r="33" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="45"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -8799,7 +9322,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="16"/>
-      <c r="X33" s="54"/>
+      <c r="X33" s="46"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
@@ -8840,7 +9363,7 @@
       <c r="BJ33" s="6"/>
       <c r="BK33" s="6"/>
       <c r="BL33" s="16"/>
-      <c r="BM33" s="54"/>
+      <c r="BM33" s="46"/>
       <c r="BN33" s="2"/>
       <c r="BO33" s="6"/>
       <c r="BP33" s="6"/>
@@ -8863,13 +9386,13 @@
       <c r="CG33" s="3"/>
     </row>
     <row r="34" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="58">
+      <c r="A34" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="117">
         <v>4</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -8885,20 +9408,18 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
       <c r="U34" s="18"/>
       <c r="V34" s="18"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="54"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="46"/>
       <c r="Y34" s="19"/>
       <c r="Z34" s="20"/>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="81"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="9"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="71"/>
       <c r="AH34" s="10"/>
       <c r="AI34" s="10"/>
       <c r="AJ34" s="10"/>
@@ -8930,7 +9451,7 @@
       <c r="BJ34" s="13"/>
       <c r="BK34" s="13"/>
       <c r="BL34" s="14"/>
-      <c r="BM34" s="54"/>
+      <c r="BM34" s="46"/>
       <c r="BN34" s="12"/>
       <c r="BO34" s="13"/>
       <c r="BP34" s="13"/>
@@ -8950,12 +9471,12 @@
       <c r="CD34" s="12"/>
       <c r="CE34" s="13"/>
       <c r="CF34" s="13"/>
-      <c r="CG34" s="76"/>
+      <c r="CG34" s="66"/>
     </row>
     <row r="35" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="62"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -8975,8 +9496,8 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="54"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="46"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
@@ -9017,7 +9538,7 @@
       <c r="BJ35" s="6"/>
       <c r="BK35" s="6"/>
       <c r="BL35" s="16"/>
-      <c r="BM35" s="54"/>
+      <c r="BM35" s="46"/>
       <c r="BN35" s="2"/>
       <c r="BO35" s="6"/>
       <c r="BP35" s="6"/>
@@ -9040,13 +9561,13 @@
       <c r="CG35" s="3"/>
     </row>
     <row r="36" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="58">
+      <c r="A36" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="117">
         <v>2</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -9067,17 +9588,15 @@
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
       <c r="W36" s="11"/>
-      <c r="X36" s="54"/>
+      <c r="X36" s="46"/>
       <c r="Y36" s="9"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="81"/>
-      <c r="AG36" s="81"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
+      <c r="AE36" s="58"/>
+      <c r="AH36" s="71"/>
+      <c r="AI36" s="71"/>
       <c r="AJ36" s="10"/>
       <c r="AK36" s="10"/>
       <c r="AL36" s="10"/>
@@ -9107,7 +9626,7 @@
       <c r="BJ36" s="13"/>
       <c r="BK36" s="13"/>
       <c r="BL36" s="14"/>
-      <c r="BM36" s="54"/>
+      <c r="BM36" s="46"/>
       <c r="BN36" s="12"/>
       <c r="BO36" s="13"/>
       <c r="BP36" s="13"/>
@@ -9127,12 +9646,12 @@
       <c r="CD36" s="12"/>
       <c r="CE36" s="13"/>
       <c r="CF36" s="13"/>
-      <c r="CG36" s="76"/>
+      <c r="CG36" s="66"/>
     </row>
     <row r="37" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="45"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="119"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -9153,7 +9672,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="16"/>
-      <c r="X37" s="54"/>
+      <c r="X37" s="46"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
@@ -9194,7 +9713,7 @@
       <c r="BJ37" s="6"/>
       <c r="BK37" s="6"/>
       <c r="BL37" s="16"/>
-      <c r="BM37" s="54"/>
+      <c r="BM37" s="46"/>
       <c r="BN37" s="2"/>
       <c r="BO37" s="6"/>
       <c r="BP37" s="6"/>
@@ -9217,13 +9736,13 @@
       <c r="CG37" s="3"/>
     </row>
     <row r="38" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="58">
+      <c r="A38" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="117">
         <v>2</v>
       </c>
-      <c r="C38" s="43"/>
+      <c r="C38" s="118"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -9244,16 +9763,15 @@
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
       <c r="W38" s="11"/>
-      <c r="X38" s="54"/>
+      <c r="X38" s="46"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
-      <c r="AF38" s="68"/>
-      <c r="AH38" s="80"/>
-      <c r="AI38" s="80"/>
-      <c r="AK38" s="10"/>
+      <c r="AF38" s="59"/>
+      <c r="AJ38" s="70"/>
+      <c r="AK38" s="70"/>
       <c r="AL38" s="10"/>
       <c r="AM38" s="10"/>
       <c r="AN38" s="11"/>
@@ -9281,7 +9799,7 @@
       <c r="BJ38" s="13"/>
       <c r="BK38" s="13"/>
       <c r="BL38" s="14"/>
-      <c r="BM38" s="54"/>
+      <c r="BM38" s="46"/>
       <c r="BN38" s="12"/>
       <c r="BO38" s="13"/>
       <c r="BP38" s="13"/>
@@ -9301,12 +9819,12 @@
       <c r="CD38" s="12"/>
       <c r="CE38" s="13"/>
       <c r="CF38" s="13"/>
-      <c r="CG38" s="76"/>
+      <c r="CG38" s="66"/>
     </row>
     <row r="39" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="45"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="119"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -9327,7 +9845,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="16"/>
-      <c r="X39" s="54"/>
+      <c r="X39" s="46"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
@@ -9368,7 +9886,7 @@
       <c r="BJ39" s="6"/>
       <c r="BK39" s="6"/>
       <c r="BL39" s="16"/>
-      <c r="BM39" s="54"/>
+      <c r="BM39" s="46"/>
       <c r="BN39" s="2"/>
       <c r="BO39" s="6"/>
       <c r="BP39" s="6"/>
@@ -9390,280 +9908,277 @@
       <c r="CF39" s="6"/>
       <c r="CG39" s="3"/>
     </row>
-    <row r="40" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="58">
-        <v>3</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="80"/>
-      <c r="AK40" s="80"/>
-      <c r="AL40" s="80"/>
-      <c r="AN40" s="11"/>
-      <c r="AO40" s="12"/>
-      <c r="AP40" s="13"/>
-      <c r="AQ40" s="13"/>
-      <c r="AR40" s="13"/>
-      <c r="AS40" s="13"/>
-      <c r="AT40" s="13"/>
-      <c r="AU40" s="13"/>
-      <c r="AV40" s="14"/>
-      <c r="AW40" s="12"/>
-      <c r="AX40" s="13"/>
-      <c r="AY40" s="13"/>
-      <c r="AZ40" s="13"/>
-      <c r="BA40" s="13"/>
-      <c r="BB40" s="13"/>
-      <c r="BC40" s="13"/>
-      <c r="BD40" s="14"/>
-      <c r="BE40" s="12"/>
-      <c r="BF40" s="13"/>
-      <c r="BG40" s="13"/>
-      <c r="BH40" s="13"/>
-      <c r="BI40" s="13"/>
-      <c r="BJ40" s="13"/>
-      <c r="BK40" s="13"/>
-      <c r="BL40" s="14"/>
-      <c r="BM40" s="54"/>
-      <c r="BN40" s="12"/>
-      <c r="BO40" s="13"/>
-      <c r="BP40" s="13"/>
-      <c r="BQ40" s="13"/>
-      <c r="BR40" s="13"/>
-      <c r="BS40" s="13"/>
-      <c r="BT40" s="13"/>
-      <c r="BU40" s="14"/>
-      <c r="BV40" s="12"/>
-      <c r="BW40" s="13"/>
-      <c r="BX40" s="13"/>
-      <c r="BY40" s="13"/>
-      <c r="BZ40" s="13"/>
-      <c r="CA40" s="13"/>
-      <c r="CB40" s="13"/>
-      <c r="CC40" s="15"/>
-      <c r="CD40" s="12"/>
-      <c r="CE40" s="13"/>
-      <c r="CF40" s="13"/>
-      <c r="CG40" s="76"/>
+    <row r="40" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="27"/>
+      <c r="AL40" s="27"/>
+      <c r="AM40" s="27"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="33"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
+      <c r="AR40" s="42"/>
+      <c r="AS40" s="42"/>
+      <c r="AT40" s="42"/>
+      <c r="AU40" s="42"/>
+      <c r="AV40" s="42"/>
+      <c r="AW40" s="42"/>
+      <c r="AX40" s="42"/>
+      <c r="AY40" s="42"/>
+      <c r="AZ40" s="42"/>
+      <c r="BA40" s="42"/>
+      <c r="BB40" s="42"/>
+      <c r="BC40" s="42"/>
+      <c r="BD40" s="42"/>
+      <c r="BE40" s="42"/>
+      <c r="BF40" s="42"/>
+      <c r="BG40" s="42"/>
+      <c r="BH40" s="42"/>
+      <c r="BI40" s="42"/>
+      <c r="BJ40" s="42"/>
+      <c r="BK40" s="42"/>
+      <c r="BL40" s="42"/>
+      <c r="BM40" s="46"/>
+      <c r="BN40" s="42"/>
+      <c r="BO40" s="42"/>
+      <c r="BP40" s="42"/>
+      <c r="BQ40" s="42"/>
+      <c r="BR40" s="42"/>
+      <c r="BS40" s="42"/>
+      <c r="BT40" s="42"/>
+      <c r="BU40" s="42"/>
+      <c r="BV40" s="42"/>
+      <c r="BW40" s="42"/>
+      <c r="BX40" s="42"/>
+      <c r="BY40" s="42"/>
+      <c r="BZ40" s="42"/>
+      <c r="CA40" s="42"/>
+      <c r="CB40" s="42"/>
+      <c r="CC40" s="34"/>
+      <c r="CD40" s="43"/>
+      <c r="CE40" s="43"/>
+      <c r="CF40" s="43"/>
+      <c r="CG40" s="44"/>
     </row>
-    <row r="41" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="45"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="60"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="42"/>
-      <c r="AI41" s="42"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="6"/>
-      <c r="AL41" s="6"/>
-      <c r="AM41" s="6"/>
-      <c r="AN41" s="16"/>
-      <c r="AO41" s="2"/>
-      <c r="AP41" s="6"/>
-      <c r="AQ41" s="6"/>
-      <c r="AR41" s="6"/>
-      <c r="AS41" s="6"/>
-      <c r="AT41" s="6"/>
-      <c r="AU41" s="6"/>
-      <c r="AV41" s="16"/>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="6"/>
-      <c r="AY41" s="6"/>
-      <c r="AZ41" s="6"/>
-      <c r="BA41" s="6"/>
-      <c r="BB41" s="6"/>
-      <c r="BC41" s="6"/>
-      <c r="BD41" s="16"/>
-      <c r="BE41" s="2"/>
-      <c r="BF41" s="6"/>
-      <c r="BG41" s="6"/>
-      <c r="BH41" s="6"/>
-      <c r="BI41" s="6"/>
-      <c r="BJ41" s="6"/>
-      <c r="BK41" s="6"/>
-      <c r="BL41" s="16"/>
-      <c r="BM41" s="54"/>
-      <c r="BN41" s="2"/>
-      <c r="BO41" s="6"/>
-      <c r="BP41" s="6"/>
-      <c r="BQ41" s="6"/>
-      <c r="BR41" s="6"/>
-      <c r="BS41" s="6"/>
-      <c r="BT41" s="6"/>
-      <c r="BU41" s="16"/>
-      <c r="BV41" s="2"/>
-      <c r="BW41" s="6"/>
-      <c r="BX41" s="6"/>
-      <c r="BY41" s="6"/>
-      <c r="BZ41" s="6"/>
-      <c r="CA41" s="6"/>
-      <c r="CB41" s="6"/>
-      <c r="CC41" s="17"/>
-      <c r="CD41" s="2"/>
-      <c r="CE41" s="6"/>
-      <c r="CF41" s="6"/>
-      <c r="CG41" s="3"/>
+    <row r="41" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="117">
+        <v>2</v>
+      </c>
+      <c r="C41" s="118"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AN41" s="70"/>
+      <c r="AO41" s="70"/>
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10"/>
+      <c r="AR41" s="10"/>
+      <c r="AS41" s="10"/>
+      <c r="AT41" s="10"/>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="9"/>
+      <c r="AX41" s="10"/>
+      <c r="AY41" s="10"/>
+      <c r="AZ41" s="10"/>
+      <c r="BA41" s="10"/>
+      <c r="BB41" s="10"/>
+      <c r="BC41" s="10"/>
+      <c r="BD41" s="11"/>
+      <c r="BE41" s="9"/>
+      <c r="BF41" s="10"/>
+      <c r="BG41" s="10"/>
+      <c r="BH41" s="10"/>
+      <c r="BI41" s="10"/>
+      <c r="BJ41" s="10"/>
+      <c r="BK41" s="10"/>
+      <c r="BL41" s="11"/>
+      <c r="BM41" s="46"/>
+      <c r="BN41" s="9"/>
+      <c r="BO41" s="10"/>
+      <c r="BP41" s="10"/>
+      <c r="BQ41" s="10"/>
+      <c r="BR41" s="10"/>
+      <c r="BS41" s="10"/>
+      <c r="BT41" s="10"/>
+      <c r="BU41" s="11"/>
+      <c r="BV41" s="9"/>
+      <c r="BW41" s="10"/>
+      <c r="BX41" s="10"/>
+      <c r="BY41" s="10"/>
+      <c r="BZ41" s="10"/>
+      <c r="CA41" s="10"/>
+      <c r="CB41" s="10"/>
+      <c r="CC41" s="22"/>
+      <c r="CD41" s="9"/>
+      <c r="CE41" s="10"/>
+      <c r="CF41" s="10"/>
+      <c r="CG41" s="67"/>
     </row>
     <row r="42" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="27"/>
-      <c r="AI42" s="27"/>
-      <c r="AJ42" s="27"/>
-      <c r="AK42" s="27"/>
-      <c r="AL42" s="27"/>
-      <c r="AM42" s="27"/>
-      <c r="AN42" s="28"/>
-      <c r="AO42" s="36"/>
-      <c r="AP42" s="50"/>
-      <c r="AQ42" s="50"/>
-      <c r="AR42" s="50"/>
-      <c r="AS42" s="50"/>
-      <c r="AT42" s="50"/>
-      <c r="AU42" s="50"/>
-      <c r="AV42" s="50"/>
-      <c r="AW42" s="50"/>
-      <c r="AX42" s="50"/>
-      <c r="AY42" s="50"/>
-      <c r="AZ42" s="50"/>
-      <c r="BA42" s="50"/>
-      <c r="BB42" s="50"/>
-      <c r="BC42" s="50"/>
-      <c r="BD42" s="50"/>
-      <c r="BE42" s="50"/>
-      <c r="BF42" s="50"/>
-      <c r="BG42" s="50"/>
-      <c r="BH42" s="50"/>
-      <c r="BI42" s="50"/>
-      <c r="BJ42" s="50"/>
-      <c r="BK42" s="50"/>
-      <c r="BL42" s="50"/>
-      <c r="BM42" s="54"/>
-      <c r="BN42" s="50"/>
-      <c r="BO42" s="50"/>
-      <c r="BP42" s="50"/>
-      <c r="BQ42" s="50"/>
-      <c r="BR42" s="50"/>
-      <c r="BS42" s="50"/>
-      <c r="BT42" s="50"/>
-      <c r="BU42" s="50"/>
-      <c r="BV42" s="50"/>
-      <c r="BW42" s="50"/>
-      <c r="BX42" s="50"/>
-      <c r="BY42" s="50"/>
-      <c r="BZ42" s="50"/>
-      <c r="CA42" s="50"/>
-      <c r="CB42" s="50"/>
-      <c r="CC42" s="37"/>
-      <c r="CD42" s="51"/>
-      <c r="CE42" s="51"/>
-      <c r="CF42" s="51"/>
-      <c r="CG42" s="52"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="16"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="6"/>
+      <c r="AR42" s="6"/>
+      <c r="AS42" s="6"/>
+      <c r="AT42" s="6"/>
+      <c r="AU42" s="6"/>
+      <c r="AV42" s="16"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="6"/>
+      <c r="AY42" s="6"/>
+      <c r="AZ42" s="6"/>
+      <c r="BA42" s="6"/>
+      <c r="BB42" s="6"/>
+      <c r="BC42" s="6"/>
+      <c r="BD42" s="16"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="6"/>
+      <c r="BG42" s="6"/>
+      <c r="BH42" s="6"/>
+      <c r="BI42" s="6"/>
+      <c r="BJ42" s="6"/>
+      <c r="BK42" s="6"/>
+      <c r="BL42" s="16"/>
+      <c r="BM42" s="46"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="6"/>
+      <c r="BP42" s="6"/>
+      <c r="BQ42" s="6"/>
+      <c r="BR42" s="6"/>
+      <c r="BS42" s="6"/>
+      <c r="BT42" s="6"/>
+      <c r="BU42" s="16"/>
+      <c r="BV42" s="2"/>
+      <c r="BW42" s="6"/>
+      <c r="BX42" s="6"/>
+      <c r="BY42" s="6"/>
+      <c r="BZ42" s="6"/>
+      <c r="CA42" s="6"/>
+      <c r="CB42" s="6"/>
+      <c r="CC42" s="17"/>
+      <c r="CD42" s="2"/>
+      <c r="CE42" s="6"/>
+      <c r="CF42" s="6"/>
+      <c r="CG42" s="3"/>
     </row>
     <row r="43" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="58">
+      <c r="A43" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="117">
         <v>2</v>
       </c>
-      <c r="C43" s="46"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -9684,7 +10199,7 @@
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="11"/>
-      <c r="X43" s="54"/>
+      <c r="X43" s="46"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="10"/>
       <c r="AA43" s="10"/>
@@ -9693,13 +10208,13 @@
       <c r="AD43" s="10"/>
       <c r="AE43" s="10"/>
       <c r="AF43" s="11"/>
-      <c r="AG43" s="10"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="10"/>
       <c r="AI43" s="10"/>
       <c r="AJ43" s="10"/>
-      <c r="AM43" s="80"/>
-      <c r="AN43" s="80"/>
-      <c r="AP43" s="10"/>
-      <c r="AQ43" s="10"/>
+      <c r="AM43" s="58"/>
+      <c r="AP43" s="70"/>
+      <c r="AQ43" s="70"/>
       <c r="AR43" s="10"/>
       <c r="AS43" s="10"/>
       <c r="AT43" s="10"/>
@@ -9721,7 +10236,7 @@
       <c r="BJ43" s="10"/>
       <c r="BK43" s="10"/>
       <c r="BL43" s="11"/>
-      <c r="BM43" s="54"/>
+      <c r="BM43" s="46"/>
       <c r="BN43" s="9"/>
       <c r="BO43" s="10"/>
       <c r="BP43" s="10"/>
@@ -9741,12 +10256,12 @@
       <c r="CD43" s="9"/>
       <c r="CE43" s="10"/>
       <c r="CF43" s="10"/>
-      <c r="CG43" s="77"/>
+      <c r="CG43" s="67"/>
     </row>
-    <row r="44" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="45"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
+    <row r="44" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="41"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -9767,7 +10282,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="16"/>
-      <c r="X44" s="54"/>
+      <c r="X44" s="46"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
@@ -9808,7 +10323,7 @@
       <c r="BJ44" s="6"/>
       <c r="BK44" s="6"/>
       <c r="BL44" s="16"/>
-      <c r="BM44" s="54"/>
+      <c r="BM44" s="46"/>
       <c r="BN44" s="2"/>
       <c r="BO44" s="6"/>
       <c r="BP44" s="6"/>
@@ -9831,13 +10346,13 @@
       <c r="CG44" s="3"/>
     </row>
     <row r="45" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="58">
-        <v>2</v>
-      </c>
-      <c r="C45" s="43"/>
+      <c r="A45" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="117">
+        <v>4</v>
+      </c>
+      <c r="C45" s="118"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -9858,7 +10373,7 @@
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
       <c r="W45" s="11"/>
-      <c r="X45" s="54"/>
+      <c r="X45" s="46"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
@@ -9871,13 +10386,14 @@
       <c r="AH45" s="10"/>
       <c r="AI45" s="10"/>
       <c r="AJ45" s="10"/>
-      <c r="AM45" s="67"/>
-      <c r="AO45" s="80"/>
-      <c r="AP45" s="80"/>
-      <c r="AR45" s="10"/>
-      <c r="AS45" s="10"/>
-      <c r="AT45" s="10"/>
-      <c r="AU45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="58"/>
+      <c r="AR45" s="70"/>
+      <c r="AS45" s="70"/>
+      <c r="AT45" s="70"/>
+      <c r="AU45" s="70"/>
       <c r="AV45" s="11"/>
       <c r="AW45" s="9"/>
       <c r="AX45" s="10"/>
@@ -9895,7 +10411,7 @@
       <c r="BJ45" s="10"/>
       <c r="BK45" s="10"/>
       <c r="BL45" s="11"/>
-      <c r="BM45" s="54"/>
+      <c r="BM45" s="46"/>
       <c r="BN45" s="9"/>
       <c r="BO45" s="10"/>
       <c r="BP45" s="10"/>
@@ -9915,12 +10431,12 @@
       <c r="CD45" s="9"/>
       <c r="CE45" s="10"/>
       <c r="CF45" s="10"/>
-      <c r="CG45" s="77"/>
+      <c r="CG45" s="67"/>
     </row>
     <row r="46" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="45"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="119"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -9941,7 +10457,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="16"/>
-      <c r="X46" s="54"/>
+      <c r="X46" s="46"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
@@ -9982,7 +10498,7 @@
       <c r="BJ46" s="6"/>
       <c r="BK46" s="6"/>
       <c r="BL46" s="16"/>
-      <c r="BM46" s="54"/>
+      <c r="BM46" s="46"/>
       <c r="BN46" s="2"/>
       <c r="BO46" s="6"/>
       <c r="BP46" s="6"/>
@@ -10005,13 +10521,13 @@
       <c r="CG46" s="3"/>
     </row>
     <row r="47" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="58">
-        <v>4</v>
-      </c>
-      <c r="C47" s="43"/>
+      <c r="A47" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="117">
+        <v>3</v>
+      </c>
+      <c r="C47" s="118"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -10032,7 +10548,7 @@
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
       <c r="W47" s="11"/>
-      <c r="X47" s="54"/>
+      <c r="X47" s="46"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="10"/>
       <c r="AA47" s="10"/>
@@ -10047,16 +10563,17 @@
       <c r="AJ47" s="10"/>
       <c r="AK47" s="10"/>
       <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
       <c r="AN47" s="11"/>
-      <c r="AO47" s="67"/>
-      <c r="AQ47" s="80"/>
-      <c r="AR47" s="80"/>
-      <c r="AS47" s="80"/>
-      <c r="AT47" s="80"/>
-      <c r="AU47" s="67"/>
-      <c r="AV47" s="11"/>
-      <c r="AW47" s="9"/>
-      <c r="AX47" s="10"/>
+      <c r="AO47" s="9"/>
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10"/>
+      <c r="AR47" s="10"/>
+      <c r="AS47" s="10"/>
+      <c r="AT47" s="10"/>
+      <c r="AV47" s="70"/>
+      <c r="AW47" s="70"/>
+      <c r="AX47" s="70"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="10"/>
       <c r="BA47" s="10"/>
@@ -10071,7 +10588,7 @@
       <c r="BJ47" s="10"/>
       <c r="BK47" s="10"/>
       <c r="BL47" s="11"/>
-      <c r="BM47" s="54"/>
+      <c r="BM47" s="46"/>
       <c r="BN47" s="9"/>
       <c r="BO47" s="10"/>
       <c r="BP47" s="10"/>
@@ -10091,12 +10608,12 @@
       <c r="CD47" s="9"/>
       <c r="CE47" s="10"/>
       <c r="CF47" s="10"/>
-      <c r="CG47" s="77"/>
+      <c r="CG47" s="67"/>
     </row>
     <row r="48" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="45"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="119"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -10117,7 +10634,7 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="16"/>
-      <c r="X48" s="54"/>
+      <c r="X48" s="46"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
@@ -10158,7 +10675,7 @@
       <c r="BJ48" s="6"/>
       <c r="BK48" s="6"/>
       <c r="BL48" s="16"/>
-      <c r="BM48" s="54"/>
+      <c r="BM48" s="46"/>
       <c r="BN48" s="2"/>
       <c r="BO48" s="6"/>
       <c r="BP48" s="6"/>
@@ -10181,13 +10698,13 @@
       <c r="CG48" s="3"/>
     </row>
     <row r="49" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="58">
-        <v>3</v>
-      </c>
-      <c r="C49" s="43"/>
+      <c r="A49" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="117">
+        <v>4</v>
+      </c>
+      <c r="C49" s="118"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -10208,7 +10725,7 @@
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
       <c r="W49" s="11"/>
-      <c r="X49" s="54"/>
+      <c r="X49" s="46"/>
       <c r="Y49" s="9"/>
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
@@ -10230,14 +10747,13 @@
       <c r="AQ49" s="10"/>
       <c r="AR49" s="10"/>
       <c r="AS49" s="10"/>
-      <c r="AT49" s="10"/>
-      <c r="AU49" s="80"/>
-      <c r="AV49" s="80"/>
-      <c r="AW49" s="80"/>
-      <c r="AY49" s="10"/>
-      <c r="AZ49" s="10"/>
-      <c r="BA49" s="10"/>
-      <c r="BB49" s="10"/>
+      <c r="AU49" s="58"/>
+      <c r="AV49" s="59"/>
+      <c r="AW49" s="57"/>
+      <c r="AY49" s="88"/>
+      <c r="AZ49" s="88"/>
+      <c r="BA49" s="88"/>
+      <c r="BB49" s="88"/>
       <c r="BC49" s="10"/>
       <c r="BD49" s="11"/>
       <c r="BE49" s="9"/>
@@ -10248,7 +10764,7 @@
       <c r="BJ49" s="10"/>
       <c r="BK49" s="10"/>
       <c r="BL49" s="11"/>
-      <c r="BM49" s="54"/>
+      <c r="BM49" s="46"/>
       <c r="BN49" s="9"/>
       <c r="BO49" s="10"/>
       <c r="BP49" s="10"/>
@@ -10268,12 +10784,12 @@
       <c r="CD49" s="9"/>
       <c r="CE49" s="10"/>
       <c r="CF49" s="10"/>
-      <c r="CG49" s="77"/>
+      <c r="CG49" s="67"/>
     </row>
     <row r="50" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="45"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="119"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -10294,7 +10810,7 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="16"/>
-      <c r="X50" s="54"/>
+      <c r="X50" s="46"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
@@ -10319,7 +10835,7 @@
       <c r="AT50" s="6"/>
       <c r="AU50" s="6"/>
       <c r="AV50" s="16"/>
-      <c r="AW50" s="2"/>
+      <c r="AW50" s="6"/>
       <c r="AX50" s="6"/>
       <c r="AY50" s="6"/>
       <c r="AZ50" s="6"/>
@@ -10335,7 +10851,7 @@
       <c r="BJ50" s="6"/>
       <c r="BK50" s="6"/>
       <c r="BL50" s="16"/>
-      <c r="BM50" s="54"/>
+      <c r="BM50" s="46"/>
       <c r="BN50" s="2"/>
       <c r="BO50" s="6"/>
       <c r="BP50" s="6"/>
@@ -10358,13 +10874,13 @@
       <c r="CG50" s="3"/>
     </row>
     <row r="51" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="58">
+      <c r="A51" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="117">
         <v>4</v>
       </c>
-      <c r="C51" s="43"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -10385,7 +10901,7 @@
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
       <c r="W51" s="11"/>
-      <c r="X51" s="54"/>
+      <c r="X51" s="46"/>
       <c r="Y51" s="9"/>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
@@ -10407,24 +10923,25 @@
       <c r="AQ51" s="10"/>
       <c r="AR51" s="10"/>
       <c r="AS51" s="10"/>
-      <c r="AU51" s="67"/>
-      <c r="AV51" s="68"/>
-      <c r="AW51" s="66"/>
-      <c r="AX51" s="98"/>
-      <c r="AY51" s="98"/>
-      <c r="AZ51" s="98"/>
-      <c r="BA51" s="98"/>
-      <c r="BC51" s="10"/>
-      <c r="BD51" s="11"/>
-      <c r="BE51" s="9"/>
-      <c r="BF51" s="10"/>
+      <c r="AT51" s="10"/>
+      <c r="AU51" s="10"/>
+      <c r="AV51" s="11"/>
+      <c r="AW51" s="10"/>
+      <c r="AX51" s="10"/>
+      <c r="AY51" s="10"/>
+      <c r="AZ51" s="10"/>
+      <c r="BA51" s="10"/>
+      <c r="BC51" s="88"/>
+      <c r="BD51" s="88"/>
+      <c r="BE51" s="88"/>
+      <c r="BF51" s="88"/>
       <c r="BG51" s="10"/>
       <c r="BH51" s="10"/>
       <c r="BI51" s="10"/>
       <c r="BJ51" s="10"/>
       <c r="BK51" s="10"/>
       <c r="BL51" s="11"/>
-      <c r="BM51" s="54"/>
+      <c r="BM51" s="46"/>
       <c r="BN51" s="9"/>
       <c r="BO51" s="10"/>
       <c r="BP51" s="10"/>
@@ -10444,12 +10961,12 @@
       <c r="CD51" s="9"/>
       <c r="CE51" s="10"/>
       <c r="CF51" s="10"/>
-      <c r="CG51" s="77"/>
+      <c r="CG51" s="67"/>
     </row>
     <row r="52" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="45"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="119"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -10470,7 +10987,7 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="16"/>
-      <c r="X52" s="54"/>
+      <c r="X52" s="46"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
@@ -10495,8 +11012,8 @@
       <c r="AT52" s="6"/>
       <c r="AU52" s="6"/>
       <c r="AV52" s="16"/>
-      <c r="AW52" s="6"/>
-      <c r="AX52" s="6"/>
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="39"/>
       <c r="AY52" s="6"/>
       <c r="AZ52" s="6"/>
       <c r="BA52" s="6"/>
@@ -10511,7 +11028,7 @@
       <c r="BJ52" s="6"/>
       <c r="BK52" s="6"/>
       <c r="BL52" s="16"/>
-      <c r="BM52" s="54"/>
+      <c r="BM52" s="46"/>
       <c r="BN52" s="2"/>
       <c r="BO52" s="6"/>
       <c r="BP52" s="6"/>
@@ -10534,13 +11051,13 @@
       <c r="CG52" s="3"/>
     </row>
     <row r="53" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="58">
-        <v>4</v>
-      </c>
-      <c r="C53" s="43"/>
+      <c r="A53" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="117">
+        <v>6</v>
+      </c>
+      <c r="C53" s="118"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -10561,7 +11078,7 @@
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
       <c r="W53" s="11"/>
-      <c r="X53" s="54"/>
+      <c r="X53" s="46"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
@@ -10585,23 +11102,22 @@
       <c r="AS53" s="10"/>
       <c r="AT53" s="10"/>
       <c r="AU53" s="10"/>
-      <c r="AV53" s="11"/>
-      <c r="AW53" s="10"/>
+      <c r="AV53" s="10"/>
+      <c r="AW53" s="12"/>
       <c r="AX53" s="10"/>
       <c r="AY53" s="10"/>
-      <c r="AZ53" s="10"/>
       <c r="BA53" s="10"/>
-      <c r="BB53" s="98"/>
-      <c r="BC53" s="98"/>
-      <c r="BD53" s="98"/>
-      <c r="BE53" s="98"/>
-      <c r="BG53" s="10"/>
-      <c r="BH53" s="10"/>
-      <c r="BI53" s="10"/>
-      <c r="BJ53" s="10"/>
-      <c r="BK53" s="10"/>
-      <c r="BL53" s="11"/>
-      <c r="BM53" s="54"/>
+      <c r="BB53" s="10"/>
+      <c r="BC53" s="10"/>
+      <c r="BD53" s="10"/>
+      <c r="BE53" s="9"/>
+      <c r="BG53" s="70"/>
+      <c r="BH53" s="70"/>
+      <c r="BI53" s="70"/>
+      <c r="BJ53" s="70"/>
+      <c r="BK53" s="70"/>
+      <c r="BL53" s="70"/>
+      <c r="BM53" s="46"/>
       <c r="BN53" s="9"/>
       <c r="BO53" s="10"/>
       <c r="BP53" s="10"/>
@@ -10621,12 +11137,12 @@
       <c r="CD53" s="9"/>
       <c r="CE53" s="10"/>
       <c r="CF53" s="10"/>
-      <c r="CG53" s="77"/>
+      <c r="CG53" s="67"/>
     </row>
-    <row r="54" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="45"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
+    <row r="54" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="41"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="119"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -10647,7 +11163,7 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="16"/>
-      <c r="X54" s="54"/>
+      <c r="X54" s="46"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
@@ -10672,8 +11188,8 @@
       <c r="AT54" s="6"/>
       <c r="AU54" s="6"/>
       <c r="AV54" s="16"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="42"/>
+      <c r="AW54" s="23"/>
+      <c r="AX54" s="6"/>
       <c r="AY54" s="6"/>
       <c r="AZ54" s="6"/>
       <c r="BA54" s="6"/>
@@ -10688,7 +11204,7 @@
       <c r="BJ54" s="6"/>
       <c r="BK54" s="6"/>
       <c r="BL54" s="16"/>
-      <c r="BM54" s="54"/>
+      <c r="BM54" s="46"/>
       <c r="BN54" s="2"/>
       <c r="BO54" s="6"/>
       <c r="BP54" s="6"/>
@@ -10711,13 +11227,13 @@
       <c r="CG54" s="3"/>
     </row>
     <row r="55" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="58">
-        <v>6</v>
-      </c>
-      <c r="C55" s="43"/>
+      <c r="A55" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="117">
+        <v>2</v>
+      </c>
+      <c r="C55" s="118"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -10738,7 +11254,7 @@
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
       <c r="W55" s="11"/>
-      <c r="X55" s="54"/>
+      <c r="X55" s="46"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
@@ -10762,24 +11278,24 @@
       <c r="AS55" s="10"/>
       <c r="AT55" s="10"/>
       <c r="AU55" s="10"/>
-      <c r="AV55" s="10"/>
-      <c r="AW55" s="12"/>
+      <c r="AV55" s="11"/>
+      <c r="AW55" s="9"/>
       <c r="AX55" s="10"/>
       <c r="AY55" s="10"/>
+      <c r="AZ55" s="10"/>
       <c r="BA55" s="10"/>
       <c r="BB55" s="10"/>
       <c r="BC55" s="10"/>
-      <c r="BD55" s="10"/>
-      <c r="BE55" s="9"/>
-      <c r="BF55" s="80"/>
-      <c r="BG55" s="80"/>
-      <c r="BH55" s="80"/>
-      <c r="BI55" s="80"/>
-      <c r="BJ55" s="80"/>
-      <c r="BK55" s="80"/>
-      <c r="BM55" s="54"/>
-      <c r="BN55" s="9"/>
-      <c r="BO55" s="10"/>
+      <c r="BE55" s="61"/>
+      <c r="BF55" s="18"/>
+      <c r="BG55" s="58"/>
+      <c r="BH55" s="10"/>
+      <c r="BI55" s="10"/>
+      <c r="BJ55" s="10"/>
+      <c r="BK55" s="10"/>
+      <c r="BM55" s="46"/>
+      <c r="BN55" s="73"/>
+      <c r="BO55" s="72"/>
       <c r="BP55" s="10"/>
       <c r="BQ55" s="10"/>
       <c r="BR55" s="10"/>
@@ -10797,12 +11313,12 @@
       <c r="CD55" s="9"/>
       <c r="CE55" s="10"/>
       <c r="CF55" s="10"/>
-      <c r="CG55" s="77"/>
+      <c r="CG55" s="67"/>
     </row>
-    <row r="56" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="45"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
+    <row r="56" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="41"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="119"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -10823,7 +11339,7 @@
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="16"/>
-      <c r="X56" s="54"/>
+      <c r="X56" s="46"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
@@ -10848,7 +11364,7 @@
       <c r="AT56" s="6"/>
       <c r="AU56" s="6"/>
       <c r="AV56" s="16"/>
-      <c r="AW56" s="23"/>
+      <c r="AW56" s="2"/>
       <c r="AX56" s="6"/>
       <c r="AY56" s="6"/>
       <c r="AZ56" s="6"/>
@@ -10856,7 +11372,7 @@
       <c r="BB56" s="6"/>
       <c r="BC56" s="6"/>
       <c r="BD56" s="16"/>
-      <c r="BE56" s="2"/>
+      <c r="BE56" s="23"/>
       <c r="BF56" s="6"/>
       <c r="BG56" s="6"/>
       <c r="BH56" s="6"/>
@@ -10864,7 +11380,7 @@
       <c r="BJ56" s="6"/>
       <c r="BK56" s="6"/>
       <c r="BL56" s="16"/>
-      <c r="BM56" s="54"/>
+      <c r="BM56" s="46"/>
       <c r="BN56" s="2"/>
       <c r="BO56" s="6"/>
       <c r="BP56" s="6"/>
@@ -10886,14 +11402,14 @@
       <c r="CF56" s="6"/>
       <c r="CG56" s="3"/>
     </row>
-    <row r="57" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="58">
-        <v>2</v>
-      </c>
-      <c r="C57" s="43"/>
+    <row r="57" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A57" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="117">
+        <v>3</v>
+      </c>
+      <c r="C57" s="118"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -10914,7 +11430,7 @@
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="11"/>
-      <c r="X57" s="54"/>
+      <c r="X57" s="46"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
@@ -10946,21 +11462,19 @@
       <c r="BA57" s="10"/>
       <c r="BB57" s="10"/>
       <c r="BC57" s="10"/>
-      <c r="BE57" s="70"/>
-      <c r="BF57" s="18"/>
-      <c r="BG57" s="67"/>
+      <c r="BD57" s="11"/>
+      <c r="BE57" s="10"/>
+      <c r="BF57" s="10"/>
+      <c r="BG57" s="10"/>
       <c r="BH57" s="10"/>
       <c r="BI57" s="10"/>
       <c r="BJ57" s="10"/>
-      <c r="BK57" s="10"/>
-      <c r="BL57" s="82"/>
-      <c r="BM57" s="54"/>
-      <c r="BN57" s="83"/>
-      <c r="BP57" s="10"/>
-      <c r="BQ57" s="10"/>
-      <c r="BR57" s="10"/>
+      <c r="BL57" s="58"/>
+      <c r="BM57" s="46"/>
+      <c r="BP57" s="70"/>
+      <c r="BQ57" s="70"/>
+      <c r="BR57" s="70"/>
       <c r="BS57" s="10"/>
-      <c r="BT57" s="10"/>
       <c r="BU57" s="11"/>
       <c r="BV57" s="9"/>
       <c r="BW57" s="10"/>
@@ -10973,12 +11487,12 @@
       <c r="CD57" s="9"/>
       <c r="CE57" s="10"/>
       <c r="CF57" s="10"/>
-      <c r="CG57" s="77"/>
+      <c r="CG57" s="67"/>
     </row>
     <row r="58" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="45"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="119"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -10999,7 +11513,7 @@
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="16"/>
-      <c r="X58" s="54"/>
+      <c r="X58" s="46"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
@@ -11032,7 +11546,7 @@
       <c r="BB58" s="6"/>
       <c r="BC58" s="6"/>
       <c r="BD58" s="16"/>
-      <c r="BE58" s="23"/>
+      <c r="BE58" s="2"/>
       <c r="BF58" s="6"/>
       <c r="BG58" s="6"/>
       <c r="BH58" s="6"/>
@@ -11040,9 +11554,9 @@
       <c r="BJ58" s="6"/>
       <c r="BK58" s="6"/>
       <c r="BL58" s="16"/>
-      <c r="BM58" s="54"/>
+      <c r="BM58" s="46"/>
       <c r="BN58" s="2"/>
-      <c r="BO58" s="6"/>
+      <c r="BO58" s="39"/>
       <c r="BP58" s="6"/>
       <c r="BQ58" s="6"/>
       <c r="BR58" s="6"/>
@@ -11063,13 +11577,13 @@
       <c r="CG58" s="3"/>
     </row>
     <row r="59" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A59" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="58">
+      <c r="A59" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="117">
         <v>3</v>
       </c>
-      <c r="C59" s="43"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -11090,7 +11604,7 @@
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
       <c r="W59" s="11"/>
-      <c r="X59" s="54"/>
+      <c r="X59" s="46"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
@@ -11123,21 +11637,22 @@
       <c r="BB59" s="10"/>
       <c r="BC59" s="10"/>
       <c r="BD59" s="11"/>
-      <c r="BE59" s="10"/>
+      <c r="BE59" s="9"/>
       <c r="BF59" s="10"/>
       <c r="BG59" s="10"/>
       <c r="BH59" s="10"/>
       <c r="BI59" s="10"/>
       <c r="BJ59" s="10"/>
-      <c r="BL59" s="67"/>
-      <c r="BM59" s="54"/>
-      <c r="BO59" s="80"/>
-      <c r="BP59" s="80"/>
-      <c r="BQ59" s="80"/>
-      <c r="BS59" s="10"/>
-      <c r="BU59" s="11"/>
-      <c r="BV59" s="9"/>
-      <c r="BW59" s="10"/>
+      <c r="BK59" s="10"/>
+      <c r="BL59" s="11"/>
+      <c r="BM59" s="46"/>
+      <c r="BN59" s="9"/>
+      <c r="BO59" s="10"/>
+      <c r="BP59" s="10"/>
+      <c r="BQ59" s="10"/>
+      <c r="BU59" s="70"/>
+      <c r="BV59" s="70"/>
+      <c r="BW59" s="70"/>
       <c r="BX59" s="10"/>
       <c r="BY59" s="10"/>
       <c r="BZ59" s="10"/>
@@ -11147,12 +11662,12 @@
       <c r="CD59" s="9"/>
       <c r="CE59" s="10"/>
       <c r="CF59" s="10"/>
-      <c r="CG59" s="77"/>
+      <c r="CG59" s="67"/>
     </row>
     <row r="60" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="45"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="119"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -11173,7 +11688,7 @@
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
       <c r="W60" s="16"/>
-      <c r="X60" s="54"/>
+      <c r="X60" s="46"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
@@ -11214,9 +11729,9 @@
       <c r="BJ60" s="6"/>
       <c r="BK60" s="6"/>
       <c r="BL60" s="16"/>
-      <c r="BM60" s="54"/>
+      <c r="BM60" s="46"/>
       <c r="BN60" s="2"/>
-      <c r="BO60" s="42"/>
+      <c r="BO60" s="6"/>
       <c r="BP60" s="6"/>
       <c r="BQ60" s="6"/>
       <c r="BR60" s="6"/>
@@ -11237,13 +11752,13 @@
       <c r="CG60" s="3"/>
     </row>
     <row r="61" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A61" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="58">
+      <c r="A61" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="117">
         <v>3</v>
       </c>
-      <c r="C61" s="43"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
@@ -11264,7 +11779,7 @@
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
       <c r="W61" s="11"/>
-      <c r="X61" s="54"/>
+      <c r="X61" s="46"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
@@ -11305,31 +11820,29 @@
       <c r="BJ61" s="10"/>
       <c r="BK61" s="10"/>
       <c r="BL61" s="11"/>
-      <c r="BM61" s="54"/>
+      <c r="BM61" s="46"/>
       <c r="BN61" s="9"/>
       <c r="BO61" s="10"/>
       <c r="BP61" s="10"/>
-      <c r="BQ61" s="10"/>
-      <c r="BR61" s="80"/>
-      <c r="BS61" s="80"/>
-      <c r="BT61" s="80"/>
-      <c r="BV61" s="9"/>
-      <c r="BW61" s="10"/>
-      <c r="BX61" s="10"/>
-      <c r="BY61" s="10"/>
-      <c r="BZ61" s="10"/>
+      <c r="BR61" s="10"/>
+      <c r="BS61" s="10"/>
+      <c r="BT61" s="10"/>
+      <c r="BU61" s="11"/>
+      <c r="BX61" s="70"/>
+      <c r="BY61" s="88"/>
+      <c r="BZ61" s="88"/>
       <c r="CA61" s="10"/>
       <c r="CB61" s="10"/>
       <c r="CC61" s="22"/>
       <c r="CD61" s="9"/>
       <c r="CE61" s="10"/>
       <c r="CF61" s="10"/>
-      <c r="CG61" s="77"/>
+      <c r="CG61" s="67"/>
     </row>
     <row r="62" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="45"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="119"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -11350,7 +11863,7 @@
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
       <c r="W62" s="16"/>
-      <c r="X62" s="54"/>
+      <c r="X62" s="46"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
@@ -11391,7 +11904,7 @@
       <c r="BJ62" s="6"/>
       <c r="BK62" s="6"/>
       <c r="BL62" s="16"/>
-      <c r="BM62" s="54"/>
+      <c r="BM62" s="46"/>
       <c r="BN62" s="2"/>
       <c r="BO62" s="6"/>
       <c r="BP62" s="6"/>
@@ -11414,13 +11927,13 @@
       <c r="CG62" s="3"/>
     </row>
     <row r="63" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A63" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="58">
-        <v>3</v>
-      </c>
-      <c r="C63" s="43"/>
+      <c r="A63" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="117">
+        <v>2</v>
+      </c>
+      <c r="C63" s="118"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
@@ -11441,7 +11954,7 @@
       <c r="U63" s="10"/>
       <c r="V63" s="10"/>
       <c r="W63" s="11"/>
-      <c r="X63" s="54"/>
+      <c r="X63" s="46"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="10"/>
       <c r="AA63" s="10"/>
@@ -11482,30 +11995,28 @@
       <c r="BJ63" s="10"/>
       <c r="BK63" s="10"/>
       <c r="BL63" s="11"/>
-      <c r="BM63" s="54"/>
+      <c r="BM63" s="46"/>
       <c r="BN63" s="9"/>
       <c r="BO63" s="10"/>
       <c r="BP63" s="10"/>
+      <c r="BQ63" s="10"/>
       <c r="BR63" s="10"/>
       <c r="BS63" s="10"/>
       <c r="BT63" s="10"/>
-      <c r="BU63" s="80"/>
-      <c r="BV63" s="98"/>
-      <c r="BW63" s="98"/>
-      <c r="BY63" s="10"/>
-      <c r="BZ63" s="10"/>
-      <c r="CA63" s="10"/>
-      <c r="CB63" s="10"/>
+      <c r="BV63" s="9"/>
+      <c r="BW63" s="10"/>
+      <c r="CA63" s="70"/>
+      <c r="CB63" s="70"/>
       <c r="CC63" s="22"/>
       <c r="CD63" s="9"/>
       <c r="CE63" s="10"/>
       <c r="CF63" s="10"/>
-      <c r="CG63" s="77"/>
+      <c r="CG63" s="67"/>
     </row>
     <row r="64" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="45"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="119"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -11526,7 +12037,7 @@
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" s="16"/>
-      <c r="X64" s="54"/>
+      <c r="X64" s="46"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
@@ -11567,7 +12078,7 @@
       <c r="BJ64" s="6"/>
       <c r="BK64" s="6"/>
       <c r="BL64" s="16"/>
-      <c r="BM64" s="54"/>
+      <c r="BM64" s="46"/>
       <c r="BN64" s="2"/>
       <c r="BO64" s="6"/>
       <c r="BP64" s="6"/>
@@ -11590,13 +12101,13 @@
       <c r="CG64" s="3"/>
     </row>
     <row r="65" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A65" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="58">
+      <c r="A65" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="117">
         <v>2</v>
       </c>
-      <c r="C65" s="43"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
@@ -11617,7 +12128,7 @@
       <c r="U65" s="10"/>
       <c r="V65" s="10"/>
       <c r="W65" s="11"/>
-      <c r="X65" s="54"/>
+      <c r="X65" s="46"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
@@ -11658,7 +12169,7 @@
       <c r="BJ65" s="10"/>
       <c r="BK65" s="10"/>
       <c r="BL65" s="11"/>
-      <c r="BM65" s="54"/>
+      <c r="BM65" s="46"/>
       <c r="BN65" s="9"/>
       <c r="BO65" s="10"/>
       <c r="BP65" s="10"/>
@@ -11666,22 +12177,20 @@
       <c r="BR65" s="10"/>
       <c r="BS65" s="10"/>
       <c r="BT65" s="10"/>
+      <c r="BU65" s="11"/>
       <c r="BV65" s="9"/>
-      <c r="BW65" s="10"/>
-      <c r="BX65" s="80"/>
-      <c r="BY65" s="80"/>
-      <c r="CA65" s="10"/>
-      <c r="CB65" s="10"/>
-      <c r="CC65" s="22"/>
-      <c r="CD65" s="9"/>
+      <c r="BX65" s="58"/>
+      <c r="BY65" s="58"/>
+      <c r="CC65" s="70"/>
+      <c r="CD65" s="70"/>
       <c r="CE65" s="10"/>
       <c r="CF65" s="10"/>
-      <c r="CG65" s="77"/>
+      <c r="CG65" s="67"/>
     </row>
     <row r="66" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="45"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="48"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="119"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -11702,7 +12211,7 @@
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
       <c r="W66" s="16"/>
-      <c r="X66" s="54"/>
+      <c r="X66" s="46"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
@@ -11743,7 +12252,7 @@
       <c r="BJ66" s="6"/>
       <c r="BK66" s="6"/>
       <c r="BL66" s="16"/>
-      <c r="BM66" s="54"/>
+      <c r="BM66" s="46"/>
       <c r="BN66" s="2"/>
       <c r="BO66" s="6"/>
       <c r="BP66" s="6"/>
@@ -11766,13 +12275,13 @@
       <c r="CG66" s="3"/>
     </row>
     <row r="67" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A67" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="58">
-        <v>6</v>
-      </c>
-      <c r="C67" s="43"/>
+      <c r="A67" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="117">
+        <v>3</v>
+      </c>
+      <c r="C67" s="118"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -11793,7 +12302,7 @@
       <c r="U67" s="10"/>
       <c r="V67" s="10"/>
       <c r="W67" s="11"/>
-      <c r="X67" s="54"/>
+      <c r="X67" s="46"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="10"/>
       <c r="AA67" s="10"/>
@@ -11834,7 +12343,7 @@
       <c r="BJ67" s="10"/>
       <c r="BK67" s="10"/>
       <c r="BL67" s="11"/>
-      <c r="BM67" s="54"/>
+      <c r="BM67" s="46"/>
       <c r="BN67" s="9"/>
       <c r="BO67" s="10"/>
       <c r="BP67" s="10"/>
@@ -11844,196 +12353,198 @@
       <c r="BT67" s="10"/>
       <c r="BU67" s="11"/>
       <c r="BV67" s="9"/>
-      <c r="BX67" s="67"/>
-      <c r="BY67" s="67"/>
-      <c r="BZ67" s="80"/>
-      <c r="CA67" s="80"/>
-      <c r="CB67" s="80"/>
-      <c r="CC67" s="80"/>
-      <c r="CD67" s="80"/>
-      <c r="CE67" s="97"/>
-      <c r="CF67" s="10"/>
-      <c r="CG67" s="77"/>
+      <c r="BW67" s="10"/>
+      <c r="BX67" s="10"/>
+      <c r="BY67" s="10"/>
+      <c r="BZ67" s="10"/>
+      <c r="CA67" s="10"/>
+      <c r="CB67" s="10"/>
+      <c r="CC67" s="22"/>
+      <c r="CD67" s="10"/>
+      <c r="CE67" s="70"/>
+      <c r="CF67" s="70"/>
+      <c r="CG67" s="70"/>
     </row>
     <row r="68" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="45"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="54"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="6"/>
-      <c r="AA68" s="6"/>
-      <c r="AB68" s="6"/>
-      <c r="AC68" s="6"/>
-      <c r="AD68" s="6"/>
-      <c r="AE68" s="6"/>
-      <c r="AF68" s="16"/>
-      <c r="AG68" s="2"/>
-      <c r="AH68" s="6"/>
-      <c r="AI68" s="6"/>
-      <c r="AJ68" s="6"/>
-      <c r="AK68" s="6"/>
-      <c r="AL68" s="6"/>
-      <c r="AM68" s="6"/>
-      <c r="AN68" s="16"/>
-      <c r="AO68" s="2"/>
-      <c r="AP68" s="6"/>
-      <c r="AQ68" s="6"/>
-      <c r="AR68" s="6"/>
-      <c r="AS68" s="6"/>
-      <c r="AT68" s="6"/>
-      <c r="AU68" s="6"/>
-      <c r="AV68" s="16"/>
-      <c r="AW68" s="2"/>
-      <c r="AX68" s="6"/>
-      <c r="AY68" s="6"/>
-      <c r="AZ68" s="6"/>
-      <c r="BA68" s="6"/>
-      <c r="BB68" s="6"/>
-      <c r="BC68" s="6"/>
-      <c r="BD68" s="16"/>
-      <c r="BE68" s="2"/>
-      <c r="BF68" s="6"/>
-      <c r="BG68" s="6"/>
-      <c r="BH68" s="6"/>
-      <c r="BI68" s="6"/>
-      <c r="BJ68" s="6"/>
-      <c r="BK68" s="6"/>
-      <c r="BL68" s="16"/>
-      <c r="BM68" s="54"/>
-      <c r="BN68" s="2"/>
-      <c r="BO68" s="6"/>
-      <c r="BP68" s="6"/>
-      <c r="BQ68" s="6"/>
-      <c r="BR68" s="6"/>
-      <c r="BS68" s="6"/>
-      <c r="BT68" s="6"/>
-      <c r="BU68" s="16"/>
-      <c r="BV68" s="2"/>
-      <c r="BW68" s="6"/>
-      <c r="BX68" s="6"/>
-      <c r="BY68" s="6"/>
-      <c r="BZ68" s="6"/>
-      <c r="CA68" s="6"/>
-      <c r="CB68" s="6"/>
-      <c r="CC68" s="17"/>
-      <c r="CD68" s="2"/>
-      <c r="CE68" s="6"/>
-      <c r="CF68" s="6"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="119"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="129"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="129"/>
+      <c r="J68" s="129"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="129"/>
+      <c r="M68" s="129"/>
+      <c r="N68" s="129"/>
+      <c r="O68" s="69"/>
+      <c r="P68" s="89"/>
+      <c r="Q68" s="129"/>
+      <c r="R68" s="129"/>
+      <c r="S68" s="129"/>
+      <c r="T68" s="129"/>
+      <c r="U68" s="129"/>
+      <c r="V68" s="129"/>
+      <c r="W68" s="69"/>
+      <c r="X68" s="46"/>
+      <c r="Y68" s="89"/>
+      <c r="Z68" s="129"/>
+      <c r="AA68" s="129"/>
+      <c r="AB68" s="129"/>
+      <c r="AC68" s="129"/>
+      <c r="AD68" s="129"/>
+      <c r="AE68" s="129"/>
+      <c r="AF68" s="69"/>
+      <c r="AG68" s="89"/>
+      <c r="AH68" s="129"/>
+      <c r="AI68" s="129"/>
+      <c r="AJ68" s="129"/>
+      <c r="AK68" s="129"/>
+      <c r="AL68" s="129"/>
+      <c r="AM68" s="129"/>
+      <c r="AN68" s="69"/>
+      <c r="AO68" s="89"/>
+      <c r="AP68" s="129"/>
+      <c r="AQ68" s="129"/>
+      <c r="AR68" s="129"/>
+      <c r="AS68" s="129"/>
+      <c r="AT68" s="129"/>
+      <c r="AU68" s="129"/>
+      <c r="AV68" s="69"/>
+      <c r="AW68" s="89"/>
+      <c r="AX68" s="129"/>
+      <c r="AY68" s="129"/>
+      <c r="AZ68" s="129"/>
+      <c r="BA68" s="129"/>
+      <c r="BB68" s="129"/>
+      <c r="BC68" s="129"/>
+      <c r="BD68" s="69"/>
+      <c r="BE68" s="89"/>
+      <c r="BF68" s="129"/>
+      <c r="BG68" s="129"/>
+      <c r="BH68" s="129"/>
+      <c r="BI68" s="129"/>
+      <c r="BJ68" s="129"/>
+      <c r="BK68" s="129"/>
+      <c r="BL68" s="69"/>
+      <c r="BM68" s="46"/>
+      <c r="BN68" s="89"/>
+      <c r="BO68" s="129"/>
+      <c r="BP68" s="129"/>
+      <c r="BQ68" s="129"/>
+      <c r="BR68" s="129"/>
+      <c r="BS68" s="129"/>
+      <c r="BT68" s="129"/>
+      <c r="BU68" s="69"/>
+      <c r="BV68" s="89"/>
+      <c r="BW68" s="129"/>
+      <c r="BX68" s="129"/>
+      <c r="CC68" s="130"/>
+      <c r="CD68" s="129"/>
+      <c r="CE68" s="129"/>
+      <c r="CF68" s="129"/>
       <c r="CG68" s="3"/>
     </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A69" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="49">
-        <v>2</v>
-      </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="54"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="11"/>
-      <c r="AG69" s="9"/>
-      <c r="AH69" s="10"/>
-      <c r="AI69" s="10"/>
-      <c r="AJ69" s="10"/>
-      <c r="AK69" s="10"/>
-      <c r="AL69" s="10"/>
-      <c r="AM69" s="10"/>
-      <c r="AN69" s="11"/>
-      <c r="AO69" s="9"/>
-      <c r="AP69" s="10"/>
-      <c r="AQ69" s="10"/>
-      <c r="AR69" s="10"/>
-      <c r="AS69" s="10"/>
-      <c r="AT69" s="10"/>
-      <c r="AU69" s="10"/>
-      <c r="AV69" s="11"/>
-      <c r="AW69" s="9"/>
-      <c r="AX69" s="10"/>
-      <c r="AY69" s="10"/>
-      <c r="AZ69" s="10"/>
-      <c r="BA69" s="10"/>
-      <c r="BB69" s="10"/>
-      <c r="BC69" s="10"/>
-      <c r="BD69" s="11"/>
-      <c r="BE69" s="9"/>
-      <c r="BF69" s="10"/>
-      <c r="BG69" s="10"/>
-      <c r="BH69" s="10"/>
-      <c r="BI69" s="10"/>
-      <c r="BJ69" s="10"/>
-      <c r="BK69" s="10"/>
-      <c r="BL69" s="11"/>
-      <c r="BM69" s="54"/>
-      <c r="BN69" s="9"/>
-      <c r="BO69" s="10"/>
-      <c r="BP69" s="10"/>
-      <c r="BQ69" s="10"/>
-      <c r="BR69" s="10"/>
-      <c r="BS69" s="10"/>
-      <c r="BT69" s="10"/>
-      <c r="BU69" s="11"/>
-      <c r="BV69" s="9"/>
-      <c r="BW69" s="10"/>
-      <c r="BX69" s="10"/>
-      <c r="BY69" s="10"/>
-      <c r="BZ69" s="10"/>
-      <c r="CB69" s="67"/>
-      <c r="CC69" s="71"/>
-      <c r="CF69" s="80"/>
-      <c r="CG69" s="80"/>
+    <row r="69" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="94"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="93"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="93"/>
+      <c r="L69" s="93"/>
+      <c r="M69" s="93"/>
+      <c r="N69" s="93"/>
+      <c r="O69" s="93"/>
+      <c r="P69" s="93"/>
+      <c r="Q69" s="93"/>
+      <c r="R69" s="93"/>
+      <c r="S69" s="93"/>
+      <c r="T69" s="93"/>
+      <c r="U69" s="93"/>
+      <c r="V69" s="93"/>
+      <c r="W69" s="93"/>
+      <c r="X69" s="46"/>
+      <c r="Y69" s="93"/>
+      <c r="Z69" s="93"/>
+      <c r="AA69" s="93"/>
+      <c r="AB69" s="93"/>
+      <c r="AC69" s="93"/>
+      <c r="AD69" s="93"/>
+      <c r="AE69" s="93"/>
+      <c r="AF69" s="93"/>
+      <c r="AG69" s="93"/>
+      <c r="AH69" s="93"/>
+      <c r="AI69" s="93"/>
+      <c r="AJ69" s="93"/>
+      <c r="AK69" s="93"/>
+      <c r="AL69" s="93"/>
+      <c r="AM69" s="93"/>
+      <c r="AN69" s="94"/>
+      <c r="AO69" s="33"/>
+      <c r="AP69" s="90"/>
+      <c r="AQ69" s="90"/>
+      <c r="AR69" s="90"/>
+      <c r="AS69" s="90"/>
+      <c r="AT69" s="90"/>
+      <c r="AU69" s="90"/>
+      <c r="AV69" s="90"/>
+      <c r="AW69" s="90"/>
+      <c r="AX69" s="90"/>
+      <c r="AY69" s="90"/>
+      <c r="AZ69" s="90"/>
+      <c r="BA69" s="90"/>
+      <c r="BB69" s="90"/>
+      <c r="BC69" s="90"/>
+      <c r="BD69" s="90"/>
+      <c r="BE69" s="90"/>
+      <c r="BF69" s="90"/>
+      <c r="BG69" s="90"/>
+      <c r="BH69" s="90"/>
+      <c r="BI69" s="90"/>
+      <c r="BJ69" s="90"/>
+      <c r="BK69" s="90"/>
+      <c r="BL69" s="90"/>
+      <c r="BM69" s="46"/>
+      <c r="BN69" s="90"/>
+      <c r="BO69" s="90"/>
+      <c r="BP69" s="90"/>
+      <c r="BQ69" s="90"/>
+      <c r="BR69" s="90"/>
+      <c r="BS69" s="90"/>
+      <c r="BT69" s="90"/>
+      <c r="BU69" s="90"/>
+      <c r="BV69" s="90"/>
+      <c r="BW69" s="90"/>
+      <c r="BX69" s="90"/>
+      <c r="BY69" s="90"/>
+      <c r="BZ69" s="90"/>
+      <c r="CA69" s="90"/>
+      <c r="CB69" s="90"/>
+      <c r="CC69" s="34"/>
+      <c r="CD69" s="90"/>
+      <c r="CE69" s="90"/>
+      <c r="CF69" s="90"/>
+      <c r="CG69" s="91"/>
     </row>
     <row r="70" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="45"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="48"/>
+      <c r="A70" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="117">
+        <v>6</v>
+      </c>
+      <c r="C70" s="104"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -12046,7 +12557,7 @@
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="16"/>
-      <c r="P70" s="2"/>
+      <c r="P70" s="132"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
@@ -12054,12 +12565,12 @@
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
       <c r="W70" s="16"/>
-      <c r="X70" s="54"/>
+      <c r="X70" s="46"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="6"/>
-      <c r="AC70" s="6"/>
+      <c r="AC70" s="131"/>
       <c r="AD70" s="6"/>
       <c r="AE70" s="6"/>
       <c r="AF70" s="16"/>
@@ -12068,8 +12579,8 @@
       <c r="AI70" s="6"/>
       <c r="AJ70" s="6"/>
       <c r="AK70" s="6"/>
-      <c r="AL70" s="6"/>
-      <c r="AM70" s="6"/>
+      <c r="AL70" s="131"/>
+      <c r="AM70" s="131"/>
       <c r="AN70" s="16"/>
       <c r="AO70" s="2"/>
       <c r="AP70" s="6"/>
@@ -12095,14 +12606,14 @@
       <c r="BJ70" s="6"/>
       <c r="BK70" s="6"/>
       <c r="BL70" s="16"/>
-      <c r="BM70" s="54"/>
+      <c r="BM70" s="46"/>
       <c r="BN70" s="2"/>
       <c r="BO70" s="6"/>
       <c r="BP70" s="6"/>
       <c r="BQ70" s="6"/>
       <c r="BR70" s="6"/>
-      <c r="BS70" s="6"/>
-      <c r="BT70" s="6"/>
+      <c r="BS70" s="131"/>
+      <c r="BT70" s="131"/>
       <c r="BU70" s="16"/>
       <c r="BV70" s="2"/>
       <c r="BW70" s="6"/>
@@ -12111,447 +12622,582 @@
       <c r="BZ70" s="6"/>
       <c r="CA70" s="6"/>
       <c r="CB70" s="6"/>
-      <c r="CC70" s="59"/>
+      <c r="CC70" s="50"/>
       <c r="CD70" s="2"/>
       <c r="CE70" s="6"/>
       <c r="CF70" s="6"/>
       <c r="CG70" s="3"/>
     </row>
-    <row r="71" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="29"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="30"/>
-      <c r="V71" s="30"/>
-      <c r="W71" s="30"/>
-      <c r="X71" s="54"/>
-      <c r="Y71" s="30"/>
-      <c r="Z71" s="30"/>
-      <c r="AA71" s="30"/>
-      <c r="AB71" s="30"/>
-      <c r="AC71" s="30"/>
-      <c r="AD71" s="30"/>
-      <c r="AE71" s="30"/>
-      <c r="AF71" s="30"/>
-      <c r="AG71" s="30"/>
-      <c r="AH71" s="30"/>
-      <c r="AI71" s="30"/>
-      <c r="AJ71" s="30"/>
-      <c r="AK71" s="30"/>
-      <c r="AL71" s="30"/>
-      <c r="AM71" s="30"/>
-      <c r="AN71" s="31"/>
-      <c r="AO71" s="39"/>
-      <c r="AP71" s="40"/>
-      <c r="AQ71" s="40"/>
-      <c r="AR71" s="40"/>
-      <c r="AS71" s="40"/>
-      <c r="AT71" s="40"/>
-      <c r="AU71" s="40"/>
-      <c r="AV71" s="40"/>
-      <c r="AW71" s="40"/>
-      <c r="AX71" s="40"/>
-      <c r="AY71" s="40"/>
-      <c r="AZ71" s="40"/>
-      <c r="BA71" s="40"/>
-      <c r="BB71" s="40"/>
-      <c r="BC71" s="40"/>
-      <c r="BD71" s="40"/>
-      <c r="BE71" s="40"/>
-      <c r="BF71" s="40"/>
-      <c r="BG71" s="40"/>
-      <c r="BH71" s="40"/>
-      <c r="BI71" s="40"/>
-      <c r="BJ71" s="40"/>
-      <c r="BK71" s="40"/>
-      <c r="BL71" s="40"/>
-      <c r="BM71" s="54"/>
-      <c r="BN71" s="40"/>
-      <c r="BO71" s="40"/>
-      <c r="BP71" s="40"/>
-      <c r="BQ71" s="40"/>
-      <c r="BR71" s="40"/>
-      <c r="BS71" s="40"/>
-      <c r="BT71" s="40"/>
-      <c r="BU71" s="40"/>
-      <c r="BV71" s="40"/>
-      <c r="BW71" s="40"/>
-      <c r="BX71" s="40"/>
-      <c r="BY71" s="40"/>
-      <c r="BZ71" s="40"/>
-      <c r="CA71" s="40"/>
-      <c r="CB71" s="40"/>
-      <c r="CC71" s="41"/>
-      <c r="CD71" s="40"/>
-      <c r="CE71" s="40"/>
-      <c r="CF71" s="40"/>
-      <c r="CG71" s="78"/>
+    <row r="71" spans="1:85" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="40"/>
+      <c r="B71" s="110"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="46"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="6"/>
+      <c r="AJ71" s="6"/>
+      <c r="AK71" s="6"/>
+      <c r="AL71" s="6"/>
+      <c r="AM71" s="6"/>
+      <c r="AN71" s="16"/>
+      <c r="AO71" s="2"/>
+      <c r="AP71" s="6"/>
+      <c r="AQ71" s="6"/>
+      <c r="AR71" s="6"/>
+      <c r="AS71" s="6"/>
+      <c r="AT71" s="6"/>
+      <c r="AU71" s="6"/>
+      <c r="AV71" s="16"/>
+      <c r="AW71" s="2"/>
+      <c r="AX71" s="6"/>
+      <c r="AY71" s="6"/>
+      <c r="AZ71" s="6"/>
+      <c r="BA71" s="6"/>
+      <c r="BB71" s="6"/>
+      <c r="BC71" s="6"/>
+      <c r="BD71" s="16"/>
+      <c r="BE71" s="2"/>
+      <c r="BF71" s="6"/>
+      <c r="BG71" s="6"/>
+      <c r="BH71" s="6"/>
+      <c r="BI71" s="6"/>
+      <c r="BJ71" s="6"/>
+      <c r="BK71" s="6"/>
+      <c r="BL71" s="16"/>
+      <c r="BM71" s="46"/>
+      <c r="BN71" s="2"/>
+      <c r="BO71" s="6"/>
+      <c r="BP71" s="6"/>
+      <c r="BQ71" s="6"/>
+      <c r="BR71" s="6"/>
+      <c r="BS71" s="6"/>
+      <c r="BT71" s="6"/>
+      <c r="BU71" s="16"/>
+      <c r="BV71" s="2"/>
+      <c r="BW71" s="6"/>
+      <c r="BX71" s="6"/>
+      <c r="BY71" s="6"/>
+      <c r="BZ71" s="6"/>
+      <c r="CA71" s="6"/>
+      <c r="CB71" s="6"/>
+      <c r="CC71" s="17"/>
+      <c r="CD71" s="2"/>
+      <c r="CE71" s="6"/>
+      <c r="CF71" s="6"/>
+      <c r="CG71" s="3"/>
     </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A72" s="32" t="s">
+    <row r="72" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="29"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="46"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
+      <c r="AC72" s="29"/>
+      <c r="AD72" s="29"/>
+      <c r="AE72" s="29"/>
+      <c r="AF72" s="29"/>
+      <c r="AG72" s="29"/>
+      <c r="AH72" s="29"/>
+      <c r="AI72" s="29"/>
+      <c r="AJ72" s="29"/>
+      <c r="AK72" s="29"/>
+      <c r="AL72" s="29"/>
+      <c r="AM72" s="29"/>
+      <c r="AN72" s="30"/>
+      <c r="AO72" s="36"/>
+      <c r="AP72" s="37"/>
+      <c r="AQ72" s="37"/>
+      <c r="AR72" s="37"/>
+      <c r="AS72" s="37"/>
+      <c r="AT72" s="37"/>
+      <c r="AU72" s="37"/>
+      <c r="AV72" s="37"/>
+      <c r="AW72" s="37"/>
+      <c r="AX72" s="37"/>
+      <c r="AY72" s="37"/>
+      <c r="AZ72" s="37"/>
+      <c r="BA72" s="37"/>
+      <c r="BB72" s="37"/>
+      <c r="BC72" s="37"/>
+      <c r="BD72" s="37"/>
+      <c r="BE72" s="37"/>
+      <c r="BF72" s="37"/>
+      <c r="BG72" s="37"/>
+      <c r="BH72" s="37"/>
+      <c r="BI72" s="37"/>
+      <c r="BJ72" s="37"/>
+      <c r="BK72" s="37"/>
+      <c r="BL72" s="37"/>
+      <c r="BM72" s="46"/>
+      <c r="BN72" s="37"/>
+      <c r="BO72" s="37"/>
+      <c r="BP72" s="37"/>
+      <c r="BQ72" s="37"/>
+      <c r="BR72" s="37"/>
+      <c r="BS72" s="37"/>
+      <c r="BT72" s="37"/>
+      <c r="BU72" s="37"/>
+      <c r="BV72" s="37"/>
+      <c r="BW72" s="37"/>
+      <c r="BX72" s="37"/>
+      <c r="BY72" s="37"/>
+      <c r="BZ72" s="37"/>
+      <c r="CA72" s="37"/>
+      <c r="CB72" s="37"/>
+      <c r="CC72" s="38"/>
+      <c r="CD72" s="37"/>
+      <c r="CE72" s="37"/>
+      <c r="CF72" s="37"/>
+      <c r="CG72" s="68"/>
+    </row>
+    <row r="73" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A73" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="56">
-        <f>SUM(B69:B70) + SUM(B43:B68)+SUM(B22:B41)+SUM(B7:B20)</f>
+      <c r="B73" s="48">
+        <f>SUM(B67:B70) + SUM(B41:B66)+SUM(B22:B39)+SUM(B7:B20)</f>
         <v>80</v>
       </c>
-      <c r="C72" s="57">
-        <f>SUM(C43:C70)+SUM(C17:C27)+SUM(C8:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
-      <c r="R72" s="33"/>
-      <c r="S72" s="33"/>
-      <c r="T72" s="33"/>
-      <c r="U72" s="33"/>
-      <c r="V72" s="33"/>
-      <c r="W72" s="33"/>
-      <c r="X72" s="54"/>
-      <c r="Y72" s="33"/>
-      <c r="Z72" s="33"/>
-      <c r="AA72" s="33"/>
-      <c r="AB72" s="33"/>
-      <c r="AC72" s="33"/>
-      <c r="AD72" s="33"/>
-      <c r="AE72" s="33"/>
-      <c r="AF72" s="33"/>
-      <c r="AG72" s="33"/>
-      <c r="AH72" s="33"/>
-      <c r="AI72" s="33"/>
-      <c r="AJ72" s="33"/>
-      <c r="AK72" s="33"/>
-      <c r="AL72" s="33"/>
-      <c r="AM72" s="33"/>
-      <c r="AN72" s="34"/>
-      <c r="AO72" s="12"/>
-      <c r="AP72" s="13"/>
-      <c r="AQ72" s="13"/>
-      <c r="AR72" s="13"/>
-      <c r="AS72" s="13"/>
-      <c r="AT72" s="13"/>
-      <c r="AU72" s="13"/>
-      <c r="AV72" s="13"/>
-      <c r="AW72" s="13"/>
-      <c r="AX72" s="13"/>
-      <c r="AY72" s="13"/>
-      <c r="AZ72" s="13"/>
-      <c r="BA72" s="13"/>
-      <c r="BB72" s="13"/>
-      <c r="BC72" s="13"/>
-      <c r="BD72" s="13"/>
-      <c r="BE72" s="13"/>
-      <c r="BF72" s="13"/>
-      <c r="BG72" s="13"/>
-      <c r="BH72" s="13"/>
-      <c r="BI72" s="13"/>
-      <c r="BJ72" s="13"/>
-      <c r="BK72" s="13"/>
-      <c r="BL72" s="13"/>
-      <c r="BM72" s="54"/>
-      <c r="BN72" s="13"/>
-      <c r="BO72" s="13"/>
-      <c r="BP72" s="13"/>
-      <c r="BQ72" s="13"/>
-      <c r="BR72" s="13"/>
-      <c r="BS72" s="13"/>
-      <c r="BT72" s="13"/>
-      <c r="BU72" s="13"/>
-      <c r="BV72" s="13"/>
-      <c r="BW72" s="13"/>
-      <c r="BX72" s="13"/>
-      <c r="BY72" s="13"/>
-      <c r="BZ72" s="13"/>
-      <c r="CA72" s="13"/>
-      <c r="CB72" s="13"/>
-      <c r="CC72" s="38"/>
-      <c r="CD72" s="13"/>
-      <c r="CE72" s="13"/>
-      <c r="CF72" s="13"/>
-      <c r="CG72" s="76"/>
+      <c r="C73" s="49">
+        <f>SUM(C41:C70)+SUM(C17:C27)+SUM(C8:C14)</f>
+        <v>9</v>
+      </c>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="31"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="31"/>
+      <c r="X73" s="46"/>
+      <c r="Y73" s="31"/>
+      <c r="Z73" s="31"/>
+      <c r="AA73" s="31"/>
+      <c r="AB73" s="31"/>
+      <c r="AC73" s="31"/>
+      <c r="AD73" s="31"/>
+      <c r="AE73" s="31"/>
+      <c r="AF73" s="31"/>
+      <c r="AG73" s="31"/>
+      <c r="AH73" s="31"/>
+      <c r="AI73" s="31"/>
+      <c r="AJ73" s="31"/>
+      <c r="AK73" s="31"/>
+      <c r="AL73" s="31"/>
+      <c r="AM73" s="31"/>
+      <c r="AN73" s="32"/>
+      <c r="AO73" s="12"/>
+      <c r="AP73" s="13"/>
+      <c r="AQ73" s="13"/>
+      <c r="AR73" s="13"/>
+      <c r="AS73" s="13"/>
+      <c r="AT73" s="13"/>
+      <c r="AU73" s="13"/>
+      <c r="AV73" s="13"/>
+      <c r="AW73" s="13"/>
+      <c r="AX73" s="13"/>
+      <c r="AY73" s="13"/>
+      <c r="AZ73" s="13"/>
+      <c r="BA73" s="13"/>
+      <c r="BB73" s="13"/>
+      <c r="BC73" s="13"/>
+      <c r="BD73" s="13"/>
+      <c r="BE73" s="13"/>
+      <c r="BF73" s="13"/>
+      <c r="BG73" s="13"/>
+      <c r="BH73" s="13"/>
+      <c r="BI73" s="13"/>
+      <c r="BJ73" s="13"/>
+      <c r="BK73" s="13"/>
+      <c r="BL73" s="13"/>
+      <c r="BM73" s="46"/>
+      <c r="BN73" s="13"/>
+      <c r="BO73" s="13"/>
+      <c r="BP73" s="13"/>
+      <c r="BQ73" s="13"/>
+      <c r="BR73" s="13"/>
+      <c r="BS73" s="13"/>
+      <c r="BT73" s="13"/>
+      <c r="BU73" s="13"/>
+      <c r="BV73" s="13"/>
+      <c r="BW73" s="13"/>
+      <c r="BX73" s="13"/>
+      <c r="BY73" s="13"/>
+      <c r="BZ73" s="13"/>
+      <c r="CA73" s="13"/>
+      <c r="CB73" s="13"/>
+      <c r="CC73" s="35"/>
+      <c r="CD73" s="13"/>
+      <c r="CE73" s="13"/>
+      <c r="CF73" s="13"/>
+      <c r="CG73" s="66"/>
     </row>
-    <row r="73" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="35"/>
-      <c r="B73" s="23" t="s">
+    <row r="74" spans="1:85" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="135"/>
+      <c r="B74" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C74" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D74" s="4">
         <v>5</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E74" s="4">
         <v>6</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F74" s="4">
         <v>7</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G74" s="5">
         <v>8</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H74" s="4">
         <v>1</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I74" s="4">
         <v>2</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J74" s="4">
         <v>3</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K74" s="4">
         <v>4</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L74" s="4">
         <v>5</v>
       </c>
-      <c r="M73" s="4">
+      <c r="M74" s="4">
         <v>6</v>
       </c>
-      <c r="N73" s="4">
+      <c r="N74" s="4">
         <v>7</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O74" s="5">
         <v>8</v>
       </c>
-      <c r="P73" s="4">
+      <c r="P74" s="4">
         <v>1</v>
       </c>
-      <c r="Q73" s="4">
+      <c r="Q74" s="4">
         <v>2</v>
       </c>
-      <c r="R73" s="4">
+      <c r="R74" s="4">
         <v>3</v>
       </c>
-      <c r="S73" s="4">
+      <c r="S74" s="4">
         <v>4</v>
       </c>
-      <c r="T73" s="4">
+      <c r="T74" s="4">
         <v>5</v>
       </c>
-      <c r="U73" s="4">
+      <c r="U74" s="4">
         <v>6</v>
       </c>
-      <c r="V73" s="4">
+      <c r="V74" s="4">
         <v>7</v>
       </c>
-      <c r="W73" s="5">
+      <c r="W74" s="5">
         <v>8</v>
       </c>
-      <c r="X73" s="55"/>
-      <c r="Y73" s="4">
+      <c r="X74" s="47"/>
+      <c r="Y74" s="4">
         <v>1</v>
       </c>
-      <c r="Z73" s="4">
+      <c r="Z74" s="4">
         <v>2</v>
       </c>
-      <c r="AA73" s="4">
+      <c r="AA74" s="4">
         <v>3</v>
       </c>
-      <c r="AB73" s="4">
+      <c r="AB74" s="4">
         <v>4</v>
       </c>
-      <c r="AC73" s="4">
+      <c r="AC74" s="4">
         <v>5</v>
       </c>
-      <c r="AD73" s="4">
+      <c r="AD74" s="4">
         <v>6</v>
       </c>
-      <c r="AE73" s="4">
+      <c r="AE74" s="4">
         <v>7</v>
       </c>
-      <c r="AF73" s="5">
+      <c r="AF74" s="5">
         <v>8</v>
       </c>
-      <c r="AG73" s="4">
+      <c r="AG74" s="4">
         <v>1</v>
       </c>
-      <c r="AH73" s="4">
+      <c r="AH74" s="4">
         <v>2</v>
       </c>
-      <c r="AI73" s="4">
+      <c r="AI74" s="4">
         <v>3</v>
       </c>
-      <c r="AJ73" s="4">
+      <c r="AJ74" s="4">
         <v>4</v>
       </c>
-      <c r="AK73" s="4">
+      <c r="AK74" s="4">
         <v>5</v>
       </c>
-      <c r="AL73" s="4">
+      <c r="AL74" s="4">
         <v>6</v>
       </c>
-      <c r="AM73" s="4">
+      <c r="AM74" s="4">
         <v>7</v>
       </c>
-      <c r="AN73" s="5">
+      <c r="AN74" s="5">
         <v>8</v>
       </c>
-      <c r="AO73" s="4">
+      <c r="AO74" s="4">
         <v>1</v>
       </c>
-      <c r="AP73" s="4">
+      <c r="AP74" s="4">
         <v>2</v>
       </c>
-      <c r="AQ73" s="4">
+      <c r="AQ74" s="4">
         <v>3</v>
       </c>
-      <c r="AR73" s="4">
+      <c r="AR74" s="4">
         <v>4</v>
       </c>
-      <c r="AS73" s="4">
+      <c r="AS74" s="4">
         <v>5</v>
       </c>
-      <c r="AT73" s="4">
+      <c r="AT74" s="4">
         <v>6</v>
       </c>
-      <c r="AU73" s="4">
+      <c r="AU74" s="4">
         <v>7</v>
       </c>
-      <c r="AV73" s="5">
+      <c r="AV74" s="5">
         <v>8</v>
       </c>
-      <c r="AW73" s="4">
+      <c r="AW74" s="4">
         <v>1</v>
       </c>
-      <c r="AX73" s="4">
+      <c r="AX74" s="4">
         <v>2</v>
       </c>
-      <c r="AY73" s="4">
+      <c r="AY74" s="4">
         <v>3</v>
       </c>
-      <c r="AZ73" s="4">
+      <c r="AZ74" s="4">
         <v>4</v>
       </c>
-      <c r="BA73" s="4">
+      <c r="BA74" s="4">
         <v>5</v>
       </c>
-      <c r="BB73" s="4">
+      <c r="BB74" s="4">
         <v>6</v>
       </c>
-      <c r="BC73" s="4">
+      <c r="BC74" s="4">
         <v>7</v>
       </c>
-      <c r="BD73" s="5">
+      <c r="BD74" s="5">
         <v>8</v>
       </c>
-      <c r="BE73" s="4">
+      <c r="BE74" s="4">
         <v>1</v>
       </c>
-      <c r="BF73" s="4">
+      <c r="BF74" s="4">
         <v>2</v>
       </c>
-      <c r="BG73" s="4">
+      <c r="BG74" s="4">
         <v>3</v>
       </c>
-      <c r="BH73" s="4">
+      <c r="BH74" s="4">
         <v>4</v>
       </c>
-      <c r="BI73" s="4">
+      <c r="BI74" s="4">
         <v>5</v>
       </c>
-      <c r="BJ73" s="4">
+      <c r="BJ74" s="4">
         <v>6</v>
       </c>
-      <c r="BK73" s="4">
+      <c r="BK74" s="4">
         <v>7</v>
       </c>
-      <c r="BL73" s="5">
+      <c r="BL74" s="5">
         <v>8</v>
       </c>
-      <c r="BM73" s="55"/>
-      <c r="BN73" s="4">
+      <c r="BM74" s="47"/>
+      <c r="BN74" s="4">
         <v>1</v>
       </c>
-      <c r="BO73" s="4">
+      <c r="BO74" s="4">
         <v>2</v>
       </c>
-      <c r="BP73" s="4">
+      <c r="BP74" s="4">
         <v>3</v>
       </c>
-      <c r="BQ73" s="4">
+      <c r="BQ74" s="4">
         <v>4</v>
       </c>
-      <c r="BR73" s="4">
+      <c r="BR74" s="4">
         <v>5</v>
       </c>
-      <c r="BS73" s="4">
+      <c r="BS74" s="4">
         <v>6</v>
       </c>
-      <c r="BT73" s="4">
+      <c r="BT74" s="4">
         <v>7</v>
       </c>
-      <c r="BU73" s="5">
+      <c r="BU74" s="5">
         <v>8</v>
       </c>
-      <c r="BV73" s="4">
+      <c r="BV74" s="4">
         <v>1</v>
       </c>
-      <c r="BW73" s="4">
+      <c r="BW74" s="4">
         <v>2</v>
       </c>
-      <c r="BX73" s="4">
+      <c r="BX74" s="4">
         <v>3</v>
       </c>
-      <c r="BY73" s="4">
+      <c r="BY74" s="4">
         <v>4</v>
       </c>
-      <c r="BZ73" s="4">
+      <c r="BZ74" s="4">
         <v>5</v>
       </c>
-      <c r="CA73" s="4">
+      <c r="CA74" s="4">
         <v>6</v>
       </c>
-      <c r="CB73" s="4">
+      <c r="CB74" s="4">
         <v>7</v>
       </c>
-      <c r="CC73" s="8">
+      <c r="CC74" s="8">
         <v>8</v>
       </c>
-      <c r="CD73" s="4">
+      <c r="CD74" s="4">
         <v>1</v>
       </c>
-      <c r="CE73" s="4">
+      <c r="CE74" s="4">
         <v>2</v>
       </c>
-      <c r="CF73" s="4">
+      <c r="CF74" s="4">
         <v>3</v>
       </c>
-      <c r="CG73" s="5">
+      <c r="CG74" s="5">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="100">
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -12599,6 +13245,11 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A21:G21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12617,321 +13268,321 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="85"/>
+    <col min="1" max="16384" width="8.6640625" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="91"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="87"/>
-      <c r="B3" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="92" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="92" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
+      <c r="C3" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12943,279 +13594,279 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B01D41-73A8-442A-A19C-AC51174CB3A8}">
   <dimension ref="B1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="132"/>
-      <c r="C4" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="132"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="127"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="132"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="132"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="127"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="132"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="132"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="127"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="132"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="8">
